--- a/TEMOA_Europe_Results/_5_Industry_fueltechs.xlsx
+++ b/TEMOA_Europe_Results/_5_Industry_fueltechs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>tech</t>
   </si>
@@ -116,6 +116,9 @@
     <t>IND_FT_FS_NGA</t>
   </si>
   <si>
+    <t>IND_FT_FS_LNG</t>
+  </si>
+  <si>
     <t>IND_FT_FS_LPG</t>
   </si>
   <si>
@@ -210,6 +213,9 @@
   </si>
   <si>
     <t>SYN_MTH</t>
+  </si>
+  <si>
+    <t>PRI_GAS_LNG</t>
   </si>
   <si>
     <t>output_comm</t>
@@ -570,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,34 +625,34 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>3438.140406709235</v>
+        <v>3426.632967081625</v>
       </c>
       <c r="E2">
-        <v>3379.615337671291</v>
+        <v>3386.31787115835</v>
       </c>
       <c r="F2">
-        <v>2899.682262298397</v>
+        <v>2796.046992693769</v>
       </c>
       <c r="G2">
-        <v>2673.691169863025</v>
+        <v>2699.444231139353</v>
       </c>
       <c r="H2">
-        <v>2259.76405911738</v>
+        <v>2422.594235478683</v>
       </c>
       <c r="I2">
-        <v>3163.232170317507</v>
+        <v>3281.118907678952</v>
       </c>
       <c r="J2">
-        <v>1758.059308384233</v>
+        <v>1751.391252632446</v>
       </c>
       <c r="K2">
-        <v>969.6975023079389</v>
+        <v>963.2951099051139</v>
       </c>
       <c r="L2">
-        <v>769.957003655</v>
+        <v>798.0866698833483</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -657,22 +663,22 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>180.9547582478544</v>
+        <v>180.3491035306119</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>727.2041136547771</v>
+        <v>702.424742452226</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>64.09435738343728</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -684,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>262.9285312822011</v>
+        <v>218.1445568400723</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -695,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -704,25 +710,25 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9.134192320711696</v>
+        <v>13.65197711513643</v>
       </c>
       <c r="G4">
-        <v>49.93311183105816</v>
+        <v>50.41406883282294</v>
       </c>
       <c r="H4">
-        <v>63.66735387673479</v>
+        <v>66.37244480763513</v>
       </c>
       <c r="I4">
-        <v>114.7286279389768</v>
+        <v>119.0043127137444</v>
       </c>
       <c r="J4">
-        <v>79.63334846339735</v>
+        <v>79.33131109484941</v>
       </c>
       <c r="K4">
-        <v>52.83061963364869</v>
+        <v>52.48180739377594</v>
       </c>
       <c r="L4">
-        <v>65.92886393216138</v>
+        <v>64.86582298234597</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -733,34 +739,34 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>70.14072863861514</v>
+        <v>105.6427543617818</v>
       </c>
       <c r="E5">
-        <v>48.01261831462236</v>
+        <v>48.11992569683282</v>
       </c>
       <c r="F5">
-        <v>39.64756957750265</v>
+        <v>39.6475695775062</v>
       </c>
       <c r="G5">
-        <v>175.3519109972961</v>
+        <v>144.4446142900935</v>
       </c>
       <c r="H5">
-        <v>162.9784552704468</v>
+        <v>132.5319865427103</v>
       </c>
       <c r="I5">
         <v>220.2</v>
       </c>
       <c r="J5">
-        <v>1.976826965537875</v>
+        <v>1.976826965537908</v>
       </c>
       <c r="K5">
-        <v>2.015690120061829</v>
+        <v>2.015690120061827</v>
       </c>
       <c r="L5">
-        <v>2.049629227186552</v>
+        <v>2.049629227186553</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -771,22 +777,22 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>1067.318256315511</v>
+        <v>1072.327263754564</v>
       </c>
       <c r="E6">
-        <v>886.1782017327487</v>
+        <v>870.4058612237131</v>
       </c>
       <c r="F6">
-        <v>782.3071864740177</v>
+        <v>782.5291893503947</v>
       </c>
       <c r="G6">
-        <v>2166.551382499897</v>
+        <v>1138.89</v>
       </c>
       <c r="H6">
-        <v>1585.935011068297</v>
+        <v>1020.62163039808</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -795,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>165.4007863679288</v>
+        <v>165.5844020207414</v>
       </c>
       <c r="L6">
-        <v>312.8642451595543</v>
+        <v>1016.790412173913</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -809,7 +815,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -821,22 +827,22 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1060.467908973454</v>
       </c>
       <c r="H7">
-        <v>579.9180134557449</v>
+        <v>1138.89</v>
       </c>
       <c r="I7">
-        <v>1033.775512040459</v>
+        <v>1027.376834732186</v>
       </c>
       <c r="J7">
-        <v>993.8307975050992</v>
+        <v>997.8788703649682</v>
       </c>
       <c r="K7">
-        <v>838.5314485111126</v>
+        <v>842.5916072537738</v>
       </c>
       <c r="L7">
-        <v>699.486691083275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -847,34 +853,34 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>304.239218130349</v>
+        <v>304.2392181303491</v>
       </c>
       <c r="E8">
-        <v>350.2682508917931</v>
+        <v>345.8348381573009</v>
       </c>
       <c r="F8">
-        <v>366.3728381466653</v>
+        <v>366.2338112664895</v>
       </c>
       <c r="G8">
-        <v>400.4593732124301</v>
+        <v>400.3203463322544</v>
       </c>
       <c r="H8">
-        <v>376.6764658130231</v>
+        <v>381.1745594602014</v>
       </c>
       <c r="I8">
-        <v>385.7414182058068</v>
+        <v>394.8192609251833</v>
       </c>
       <c r="J8">
-        <v>421.3258383835244</v>
+        <v>427.3657775578856</v>
       </c>
       <c r="K8">
-        <v>420.5930740368925</v>
+        <v>426.6330132112532</v>
       </c>
       <c r="L8">
-        <v>419.6572342400828</v>
+        <v>425.6971734144439</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -885,31 +891,31 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>41.0584466139778</v>
+        <v>41.05844661397799</v>
       </c>
       <c r="E9">
-        <v>33.02391778500984</v>
+        <v>33.02391778500952</v>
       </c>
       <c r="F9">
-        <v>24.98938895603689</v>
+        <v>24.98938895604069</v>
       </c>
       <c r="G9">
-        <v>16.95486012707257</v>
+        <v>16.95486012707266</v>
       </c>
       <c r="H9">
-        <v>8.920331298104216</v>
+        <v>8.920331298104234</v>
       </c>
       <c r="I9">
-        <v>94.71267792146362</v>
+        <v>96.87630616318134</v>
       </c>
       <c r="J9">
-        <v>102.0969621154361</v>
+        <v>103.5042563503885</v>
       </c>
       <c r="K9">
-        <v>72.57492869325455</v>
+        <v>67.01753247136233</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -923,34 +929,34 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>87.82443494081902</v>
+        <v>89.43790644418048</v>
       </c>
       <c r="E10">
-        <v>70.54190532101296</v>
+        <v>70.53096541497084</v>
       </c>
       <c r="F10">
-        <v>54.47090501387055</v>
+        <v>54.5167060700469</v>
       </c>
       <c r="G10">
-        <v>38.62831668654685</v>
+        <v>38.64497780342675</v>
       </c>
       <c r="H10">
-        <v>24.88287219360084</v>
+        <v>24.97007981035638</v>
       </c>
       <c r="I10">
-        <v>8.327988491633256</v>
+        <v>8.497022417133124</v>
       </c>
       <c r="J10">
-        <v>6.48578825167998</v>
+        <v>6.529680508612604</v>
       </c>
       <c r="K10">
-        <v>6.475381024518406</v>
+        <v>6.517470068739334</v>
       </c>
       <c r="L10">
-        <v>6.460355467832426</v>
+        <v>6.50424886406117</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -961,34 +967,34 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>3.659351455867458</v>
+        <v>2.045879952506027</v>
       </c>
       <c r="E11">
-        <v>3.004288470176292</v>
+        <v>2.938790225623785</v>
       </c>
       <c r="F11">
-        <v>2.320319041218788</v>
+        <v>2.272120969866953</v>
       </c>
       <c r="G11">
-        <v>1.631026781938759</v>
+        <v>1.611968649883446</v>
       </c>
       <c r="H11">
-        <v>1.048671632320249</v>
+        <v>1.040419992098183</v>
       </c>
       <c r="I11">
-        <v>0.3541420561839241</v>
+        <v>0.3565219557447927</v>
       </c>
       <c r="J11">
-        <v>0.275079423083085</v>
+        <v>0.2720700211921917</v>
       </c>
       <c r="K11">
-        <v>0.2739274330592468</v>
+        <v>0.2727212438800447</v>
       </c>
       <c r="L11">
-        <v>0.2741902962383789</v>
+        <v>0.2711797550513598</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -999,10 +1005,10 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>315.971232478787</v>
+        <v>367.9827518853834</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1037,34 +1043,34 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>27.47575934598148</v>
+        <v>31.99850016394638</v>
       </c>
       <c r="E13">
-        <v>226.6499696884912</v>
+        <v>229.560435017859</v>
       </c>
       <c r="F13">
-        <v>722.1687400531607</v>
+        <v>978.8169640754113</v>
       </c>
       <c r="G13">
-        <v>192.1938539556729</v>
+        <v>192.1904073250413</v>
       </c>
       <c r="H13">
-        <v>171.2594967291585</v>
+        <v>171.2273476273267</v>
       </c>
       <c r="I13">
-        <v>150.7655160275197</v>
+        <v>150.7620693968838</v>
       </c>
       <c r="J13">
-        <v>134.2537363169936</v>
+        <v>134.2537363169935</v>
       </c>
       <c r="K13">
         <v>135.8893306160453</v>
       </c>
       <c r="L13">
-        <v>137.2542760650024</v>
+        <v>137.2542760650023</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1075,25 +1081,25 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>707.5700067839092</v>
+        <v>660.8185299680637</v>
       </c>
       <c r="E14">
-        <v>537.7305784382968</v>
+        <v>485.7192294184405</v>
       </c>
       <c r="F14">
-        <v>447.1585438008022</v>
+        <v>420.6133951823094</v>
       </c>
       <c r="G14">
-        <v>353.4827222854378</v>
+        <v>312.8322092225869</v>
       </c>
       <c r="H14">
-        <v>340.8464635103408</v>
+        <v>340.8273285295489</v>
       </c>
       <c r="I14">
-        <v>297.5343512677813</v>
+        <v>297.5343512677802</v>
       </c>
       <c r="J14">
         <v>251.983479545328</v>
@@ -1102,7 +1108,7 @@
         <v>255.3149543392304</v>
       </c>
       <c r="L14">
-        <v>258.1103473838797</v>
+        <v>291.6501100382823</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1113,16 +1119,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>91.94412517531023</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>63.11605806002335</v>
       </c>
       <c r="F15">
-        <v>58.10534749953928</v>
+        <v>54.65597790504585</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1131,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>38.66265581445746</v>
+        <v>38.6626558144573</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1140,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>33.53976265440245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1151,10 +1157,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>85.86907451562406</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1163,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>40.65051306282203</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1175,7 +1181,7 @@
         <v>32.74361598611607</v>
       </c>
       <c r="K16">
-        <v>33.17651949040847</v>
+        <v>33.17651949040845</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1189,34 +1195,34 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17">
-        <v>32.92994569951967</v>
+        <v>20.46669384857158</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>44.84035865580614</v>
       </c>
       <c r="F17">
-        <v>61.87251652387931</v>
+        <v>57.87964967218958</v>
       </c>
       <c r="G17">
-        <v>49.73186270254541</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>112.2474369872211</v>
+        <v>49.347284684516</v>
       </c>
       <c r="I17">
-        <v>154.6955742846757</v>
+        <v>49.347284684516</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>42.20164360670623</v>
       </c>
       <c r="L17">
-        <v>62.51557428467572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1227,34 +1233,34 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18">
-        <v>41.91083998120688</v>
+        <v>26.04851944363656</v>
       </c>
       <c r="E18">
-        <v>118.2389523499709</v>
+        <v>57.06954738011692</v>
       </c>
       <c r="F18">
-        <v>78.74683921221006</v>
+        <v>73.66500867369587</v>
       </c>
       <c r="G18">
-        <v>272.7950979850577</v>
+        <v>321.6529197375364</v>
       </c>
       <c r="H18">
-        <v>352.3603743473723</v>
+        <v>467.9527934537498</v>
       </c>
       <c r="I18">
-        <v>446.8160711998051</v>
+        <v>467.9527934537497</v>
       </c>
       <c r="J18">
-        <v>167.2804633591009</v>
+        <v>167.2749974780712</v>
       </c>
       <c r="K18">
-        <v>94.31912965034957</v>
+        <v>53.71118277217158</v>
       </c>
       <c r="L18">
-        <v>81.62681220455215</v>
+        <v>146.4198063276768</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1265,34 +1271,34 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>354.4203225784764</v>
+        <v>336.0475347182601</v>
       </c>
       <c r="E19">
-        <v>242.5016239408378</v>
+        <v>237.0442555487444</v>
       </c>
       <c r="F19">
-        <v>224.3821958846279</v>
+        <v>123.0246153924193</v>
       </c>
       <c r="G19">
-        <v>140.2724239595795</v>
+        <v>94.72757638277113</v>
       </c>
       <c r="H19">
-        <v>14.27064563564814</v>
+        <v>14.05059335655602</v>
       </c>
       <c r="I19">
-        <v>0.4832547138854277</v>
+        <v>0.4832547138853291</v>
       </c>
       <c r="J19">
-        <v>0.4942067413844947</v>
+        <v>0.4942067413844429</v>
       </c>
       <c r="K19">
-        <v>0.503922530015439</v>
+        <v>0.5039225300154668</v>
       </c>
       <c r="L19">
-        <v>0.5124073067966024</v>
+        <v>0.5124073067967977</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1303,22 +1309,22 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20">
-        <v>337.033068802894</v>
+        <v>337.0330688028924</v>
       </c>
       <c r="E20">
-        <v>220.7514151375833</v>
+        <v>220.7514151375845</v>
       </c>
       <c r="F20">
-        <v>165.930330900512</v>
+        <v>165.9303309005127</v>
       </c>
       <c r="G20">
-        <v>74.4207154931904</v>
+        <v>74.42071549319027</v>
       </c>
       <c r="H20">
-        <v>37.94389684124536</v>
+        <v>37.94389684124531</v>
       </c>
       <c r="I20">
         <v>1.467078189300412</v>
@@ -1341,7 +1347,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1353,16 +1359,16 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>70.44583572765636</v>
+        <v>65.76077263054985</v>
       </c>
       <c r="H21">
-        <v>51.7617213151015</v>
+        <v>67.58871776035602</v>
       </c>
       <c r="I21">
-        <v>44.32989275203543</v>
+        <v>51.29381798858537</v>
       </c>
       <c r="J21">
-        <v>28.82936137523412</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1379,7 +1385,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <v>160.3193272035556</v>
@@ -1388,25 +1394,25 @@
         <v>142.3208776082261</v>
       </c>
       <c r="F22">
-        <v>122.2972017053689</v>
+        <v>122.4013839495893</v>
       </c>
       <c r="G22">
-        <v>897.3689966191716</v>
+        <v>884.3132294140614</v>
       </c>
       <c r="H22">
-        <v>1092.025803635284</v>
+        <v>1080.28803083662</v>
       </c>
       <c r="I22">
-        <v>1584.603248138138</v>
+        <v>1576.337373636005</v>
       </c>
       <c r="J22">
-        <v>1122.058229632556</v>
+        <v>1132.272675178642</v>
       </c>
       <c r="K22">
-        <v>1442.961216594717</v>
+        <v>1434.776459332127</v>
       </c>
       <c r="L22">
-        <v>1147.917458609091</v>
+        <v>1164.847720187604</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1417,34 +1423,34 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>3.697997709333333</v>
+        <v>3.697997709333334</v>
       </c>
       <c r="E23">
-        <v>70.06236026914733</v>
+        <v>70.06236026914732</v>
       </c>
       <c r="F23">
-        <v>75.03386134195888</v>
+        <v>75.48057716826652</v>
       </c>
       <c r="G23">
-        <v>80.26608404719308</v>
+        <v>80.27091597268885</v>
       </c>
       <c r="H23">
-        <v>82.92509275131029</v>
+        <v>82.92984855494905</v>
       </c>
       <c r="I23">
-        <v>85.08028225782408</v>
+        <v>85.08496336297658</v>
       </c>
       <c r="J23">
-        <v>82.71298583359201</v>
+        <v>82.5353961466877</v>
       </c>
       <c r="K23">
-        <v>82.44376228225541</v>
+        <v>82.37546353139349</v>
       </c>
       <c r="L23">
-        <v>84.08909808183041</v>
+        <v>84.47767829274228</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1455,34 +1461,34 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24">
-        <v>4482.094054054052</v>
+        <v>4482.094054054053</v>
       </c>
       <c r="E24">
         <v>4481.220540540539</v>
       </c>
       <c r="F24">
-        <v>4397.694054054052</v>
+        <v>4397.694054054054</v>
       </c>
       <c r="G24">
-        <v>4259.355391912386</v>
+        <v>4257.627424797737</v>
       </c>
       <c r="H24">
-        <v>4529.933586675221</v>
+        <v>4510.910758097408</v>
       </c>
       <c r="I24">
-        <v>4378.215029805137</v>
+        <v>4395.55442995195</v>
       </c>
       <c r="J24">
-        <v>6411.205609112613</v>
+        <v>6410.31769625711</v>
       </c>
       <c r="K24">
-        <v>7422.223642626299</v>
+        <v>7427.356838083986</v>
       </c>
       <c r="L24">
-        <v>7649.407852417338</v>
+        <v>7650.477013324661</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1493,34 +1499,34 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25">
-        <v>1532.124932031964</v>
+        <v>1566.885041340712</v>
       </c>
       <c r="E25">
-        <v>1322.56280358321</v>
+        <v>1316.290887465191</v>
       </c>
       <c r="F25">
-        <v>892.414994781926</v>
+        <v>891.4326382534269</v>
       </c>
       <c r="G25">
-        <v>949.2864198593029</v>
+        <v>932.323988205296</v>
       </c>
       <c r="H25">
-        <v>855.6449262424668</v>
+        <v>940.1629608245426</v>
       </c>
       <c r="I25">
-        <v>829.6649646114539</v>
+        <v>854.8524971392632</v>
       </c>
       <c r="J25">
-        <v>822.6704899951328</v>
+        <v>823.3052968105569</v>
       </c>
       <c r="K25">
-        <v>1122.131237277947</v>
+        <v>1122.309144470385</v>
       </c>
       <c r="L25">
-        <v>1124.890487267231</v>
+        <v>1124.788787992362</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1531,34 +1537,34 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>1278.659785405693</v>
+        <v>1367.09982614031</v>
       </c>
       <c r="E26">
-        <v>1177.901063829234</v>
+        <v>1194.628344123332</v>
       </c>
       <c r="F26">
-        <v>1060.939184239359</v>
+        <v>1023.208345104933</v>
       </c>
       <c r="G26">
-        <v>940.6312220198323</v>
+        <v>901.7586010949755</v>
       </c>
       <c r="H26">
-        <v>818.720397298165</v>
+        <v>744.5987546582314</v>
       </c>
       <c r="I26">
-        <v>593.1795314491941</v>
+        <v>561.6618126858351</v>
       </c>
       <c r="J26">
-        <v>1459.10245516112</v>
+        <v>1476.657720077167</v>
       </c>
       <c r="K26">
-        <v>1565.975269771717</v>
+        <v>1565.965826629299</v>
       </c>
       <c r="L26">
-        <v>1648.845751083468</v>
+        <v>1620.730587223041</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1569,7 +1575,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1578,25 +1584,25 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>24.72570117195244</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>143.2458713777303</v>
+        <v>15.01487137773027</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>128.231</v>
       </c>
       <c r="I27">
         <v>115.366079688188</v>
       </c>
       <c r="J27">
-        <v>160.8414069706906</v>
+        <v>125.6022956411434</v>
       </c>
       <c r="K27">
-        <v>102.8001961231527</v>
+        <v>102.8001961231523</v>
       </c>
       <c r="L27">
-        <v>180.9897130053334</v>
+        <v>135.4843706970864</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1607,28 +1613,28 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28">
-        <v>52.75871300533335</v>
+        <v>52.75871300533337</v>
       </c>
       <c r="E28">
         <v>40.10079908079102</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>24.72570117195235</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1.21954609062024</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>52.75871300533337</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1645,7 +1651,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>128.231</v>
@@ -1657,10 +1663,10 @@
         <v>128.231</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>128.231</v>
       </c>
       <c r="H29">
-        <v>129.4505460906203</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1683,22 +1689,22 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>226.874743684489</v>
+        <v>221.8657362454363</v>
       </c>
       <c r="E30">
-        <v>226.874743684489</v>
+        <v>72.36440253085061</v>
       </c>
       <c r="F30">
-        <v>51.58305458276243</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>69.4779027563777</v>
+        <v>6.628837137334927</v>
       </c>
       <c r="H30">
-        <v>69.4779027563777</v>
+        <v>170.2557310313548</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1721,25 +1727,25 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>50.58305458276243</v>
+        <v>220.8657362454363</v>
       </c>
       <c r="F31">
-        <v>168.2387589432198</v>
+        <v>219.5998106496053</v>
       </c>
       <c r="G31">
-        <v>276.4577982672515</v>
+        <v>292.2301387762869</v>
       </c>
       <c r="H31">
-        <v>102.2369343435262</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>84.96673105631004</v>
+        <v>84.96673105630975</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1759,25 +1765,25 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32">
-        <v>1470.927499454273</v>
+        <v>1546.915509784149</v>
       </c>
       <c r="E32">
-        <v>1465.453483268704</v>
+        <v>1546.915509784149</v>
       </c>
       <c r="F32">
-        <v>1310.72899618488</v>
+        <v>1085.113819274451</v>
       </c>
       <c r="G32">
-        <v>56.93898251130625</v>
+        <v>56.93898251129917</v>
       </c>
       <c r="H32">
-        <v>33.0879088099483</v>
+        <v>32.80675215886573</v>
       </c>
       <c r="I32">
-        <v>12.18646341843342</v>
+        <v>12.18646341844104</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1797,34 +1803,34 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D33">
-        <v>305.5385829937607</v>
+        <v>194.3254201987315</v>
       </c>
       <c r="E33">
-        <v>485.3287000301091</v>
+        <v>416.9587578070195</v>
       </c>
       <c r="F33">
-        <v>578.0578058991894</v>
+        <v>540.2135850071824</v>
       </c>
       <c r="G33">
-        <v>1339.447340577126</v>
+        <v>1336.179574050868</v>
       </c>
       <c r="H33">
-        <v>1938.547486750628</v>
+        <v>2158.396387859973</v>
       </c>
       <c r="I33">
-        <v>1922.075064847452</v>
+        <v>2133.255741495854</v>
       </c>
       <c r="J33">
-        <v>697.6099074248694</v>
+        <v>697.5871130549691</v>
       </c>
       <c r="K33">
-        <v>393.3391741181761</v>
+        <v>399.9853694055793</v>
       </c>
       <c r="L33">
-        <v>949.9002895539636</v>
+        <v>959.3978161076618</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1835,7 +1841,7 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1850,19 +1856,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>148.9903482691985</v>
+        <v>105.5838531796821</v>
       </c>
       <c r="I34">
-        <v>1654.850336465205</v>
+        <v>1434.368301433196</v>
       </c>
       <c r="J34">
-        <v>2632.17690554583</v>
+        <v>2632.176905545863</v>
       </c>
       <c r="K34">
-        <v>2668.622759560028</v>
+        <v>2668.622759560035</v>
       </c>
       <c r="L34">
-        <v>2698.947828510337</v>
+        <v>2698.947828510343</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1873,34 +1879,34 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35">
-        <v>405.912993486848</v>
+        <v>416.4377618149538</v>
       </c>
       <c r="E35">
-        <v>467.9125416394292</v>
+        <v>464.9523388764882</v>
       </c>
       <c r="F35">
-        <v>480.5282567165732</v>
+        <v>572.2942668886411</v>
       </c>
       <c r="G35">
-        <v>424.4625405413271</v>
+        <v>543.5708985175081</v>
       </c>
       <c r="H35">
-        <v>163.2680043393747</v>
+        <v>162.1434330813901</v>
       </c>
       <c r="I35">
-        <v>83.32919699407157</v>
+        <v>83.32504816039568</v>
       </c>
       <c r="J35">
-        <v>365.9697009675557</v>
+        <v>365.8850585561952</v>
       </c>
       <c r="K35">
-        <v>367.7588685192911</v>
+        <v>367.6749742238162</v>
       </c>
       <c r="L35">
-        <v>16.58161067077355</v>
+        <v>16.58628020052391</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1911,16 +1917,16 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36">
-        <v>21.36384176246569</v>
+        <v>21.91777693762915</v>
       </c>
       <c r="E36">
-        <v>37.62418062158827</v>
+        <v>31.47908026560383</v>
       </c>
       <c r="F36">
-        <v>120.1320641791434</v>
+        <v>144.8846245287699</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1938,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>26.71476256379152</v>
+        <v>26.70866830917002</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1949,7 +1955,7 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1958,25 +1964,25 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>7.244231226438495</v>
       </c>
       <c r="G37">
-        <v>7.927144220635994</v>
+        <v>10.15157874990253</v>
       </c>
       <c r="H37">
-        <v>4.473096009297937</v>
+        <v>4.442285837846304</v>
       </c>
       <c r="I37">
-        <v>3.022302481650263</v>
+        <v>3.02215200581746</v>
       </c>
       <c r="J37">
-        <v>16.57702478250253</v>
+        <v>16.57319080568132</v>
       </c>
       <c r="K37">
-        <v>20.03607192284364</v>
+        <v>20.03150123187751</v>
       </c>
       <c r="L37">
-        <v>2.763598291567983</v>
+        <v>2.76350735168259</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1987,25 +1993,25 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D38">
-        <v>191.7284365339027</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>181.0388627691703</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>158.1935340192578</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>913.4873937905351</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>872.2334761588285</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>23.01887534592978</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2025,25 +2031,25 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D39">
-        <v>1302.148677421524</v>
+        <v>197.2648990176019</v>
       </c>
       <c r="E39">
-        <v>1174.611376059162</v>
+        <v>182.7514885892257</v>
       </c>
       <c r="F39">
-        <v>1194.437804115372</v>
+        <v>158.1935340192581</v>
       </c>
       <c r="G39">
-        <v>851.8152768361015</v>
+        <v>742.2442633857598</v>
       </c>
       <c r="H39">
-        <v>355.1245385205659</v>
+        <v>699.8052573339967</v>
       </c>
       <c r="I39">
-        <v>131.6815074936438</v>
+        <v>23.01887534593257</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2063,33 +2069,71 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D40">
-        <v>238.545845454972</v>
+        <v>1320.52146528174</v>
       </c>
       <c r="E40">
-        <v>225.2209661830959</v>
+        <v>1180.068744451256</v>
       </c>
       <c r="F40">
-        <v>196.7773228044426</v>
+        <v>1295.795384607581</v>
       </c>
       <c r="G40">
+        <v>991.2022793430169</v>
+      </c>
+      <c r="H40">
+        <v>352.1069520498949</v>
+      </c>
+      <c r="I40">
+        <v>131.6815074936437</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41">
+        <v>245.4342348242256</v>
+      </c>
+      <c r="E41">
+        <v>227.3515542568345</v>
+      </c>
+      <c r="F41">
+        <v>196.777322804443</v>
+      </c>
+      <c r="G41">
         <v>132.7045640787552</v>
       </c>
-      <c r="H40">
-        <v>77.58544134746501</v>
-      </c>
-      <c r="I40">
-        <v>28.77359418241575</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="H41">
+        <v>76.926177475961</v>
+      </c>
+      <c r="I41">
+        <v>28.77359418241569</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
         <v>0</v>
       </c>
     </row>
@@ -2111,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>

--- a/TEMOA_Europe_Results/_5_Industry_fueltechs.xlsx
+++ b/TEMOA_Europe_Results/_5_Industry_fueltechs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>tech</t>
   </si>
@@ -576,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,31 +628,31 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>3426.632967081625</v>
+        <v>3437.953937235873</v>
       </c>
       <c r="E2">
-        <v>3386.31787115835</v>
+        <v>3375.659707073048</v>
       </c>
       <c r="F2">
-        <v>2796.046992693769</v>
+        <v>2832.539519142019</v>
       </c>
       <c r="G2">
-        <v>2699.444231139353</v>
+        <v>2719.557105779324</v>
       </c>
       <c r="H2">
-        <v>2422.594235478683</v>
+        <v>2655.562292056018</v>
       </c>
       <c r="I2">
-        <v>3281.118907678952</v>
+        <v>2596.742213850473</v>
       </c>
       <c r="J2">
-        <v>1751.391252632446</v>
+        <v>1872.788329078199</v>
       </c>
       <c r="K2">
-        <v>963.2951099051139</v>
+        <v>1012.485155548387</v>
       </c>
       <c r="L2">
-        <v>798.0866698833483</v>
+        <v>75.25177118579278</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -666,19 +666,19 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>180.3491035306119</v>
+        <v>180.9449440650459</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>16.79379893076254</v>
       </c>
       <c r="F3">
-        <v>702.424742452226</v>
+        <v>693.4503535541096</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>225.3813604965705</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>36.24246184009791</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>218.1445568400723</v>
+        <v>1223.667850756608</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -710,25 +710,25 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.65197711513643</v>
+        <v>7.350564941983898</v>
       </c>
       <c r="G4">
-        <v>50.41406883282294</v>
+        <v>54.99885081330193</v>
       </c>
       <c r="H4">
-        <v>66.37244480763513</v>
+        <v>73.7480754492081</v>
       </c>
       <c r="I4">
-        <v>119.0043127137444</v>
+        <v>94.18236008784098</v>
       </c>
       <c r="J4">
-        <v>79.33131109484941</v>
+        <v>84.83013337288028</v>
       </c>
       <c r="K4">
-        <v>52.48180739377594</v>
+        <v>55.1617571564147</v>
       </c>
       <c r="L4">
-        <v>64.86582298234597</v>
+        <v>82.90976310270652</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -742,28 +742,28 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>105.6427543617818</v>
+        <v>75.11967195474841</v>
       </c>
       <c r="E5">
-        <v>48.11992569683282</v>
+        <v>48.16987803751214</v>
       </c>
       <c r="F5">
-        <v>39.6475695775062</v>
+        <v>39.6475695775033</v>
       </c>
       <c r="G5">
-        <v>144.4446142900935</v>
+        <v>272.0851918345229</v>
       </c>
       <c r="H5">
-        <v>132.5319865427103</v>
+        <v>258.1496654499238</v>
       </c>
       <c r="I5">
-        <v>220.2</v>
+        <v>536.8023115372472</v>
       </c>
       <c r="J5">
-        <v>1.976826965537908</v>
+        <v>1.976826965537877</v>
       </c>
       <c r="K5">
-        <v>2.015690120061827</v>
+        <v>2.015690120061799</v>
       </c>
       <c r="L5">
         <v>2.049629227186553</v>
@@ -780,19 +780,19 @@
         <v>41</v>
       </c>
       <c r="D6">
-        <v>1072.327263754564</v>
+        <v>1138.89</v>
       </c>
       <c r="E6">
-        <v>870.4058612237131</v>
+        <v>867.4506733841578</v>
       </c>
       <c r="F6">
-        <v>782.5291893503947</v>
+        <v>782.2673135006169</v>
       </c>
       <c r="G6">
-        <v>1138.89</v>
+        <v>1986.16019082154</v>
       </c>
       <c r="H6">
-        <v>1020.62163039808</v>
+        <v>1462.172743932271</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>165.5844020207414</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1016.790412173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -827,22 +827,22 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1060.467908973454</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1138.89</v>
+        <v>462.5319202930226</v>
       </c>
       <c r="I7">
-        <v>1027.376834732186</v>
+        <v>1001.106999413664</v>
       </c>
       <c r="J7">
-        <v>997.8788703649682</v>
+        <v>982.8866003079697</v>
       </c>
       <c r="K7">
-        <v>842.5916072537738</v>
+        <v>975.8914889251472</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>983.0170920863876</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -856,31 +856,31 @@
         <v>43</v>
       </c>
       <c r="D8">
-        <v>304.2392181303491</v>
+        <v>304.3651210914079</v>
       </c>
       <c r="E8">
-        <v>345.8348381573009</v>
+        <v>345.8343596765586</v>
       </c>
       <c r="F8">
-        <v>366.2338112664895</v>
+        <v>366.2337595701145</v>
       </c>
       <c r="G8">
-        <v>400.3203463322544</v>
+        <v>400.3202946358804</v>
       </c>
       <c r="H8">
-        <v>381.1745594602014</v>
+        <v>410.604733198881</v>
       </c>
       <c r="I8">
-        <v>394.8192609251833</v>
+        <v>417.5408639279782</v>
       </c>
       <c r="J8">
-        <v>427.3657775578856</v>
+        <v>404.9965163403901</v>
       </c>
       <c r="K8">
-        <v>426.6330132112532</v>
+        <v>380.6841664979671</v>
       </c>
       <c r="L8">
-        <v>425.6971734144439</v>
+        <v>379.7483267011575</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -894,28 +894,28 @@
         <v>44</v>
       </c>
       <c r="D9">
-        <v>41.05844661397799</v>
+        <v>41.05844661397896</v>
       </c>
       <c r="E9">
-        <v>33.02391778500952</v>
+        <v>33.02391778500957</v>
       </c>
       <c r="F9">
-        <v>24.98938895604069</v>
+        <v>24.98938895604081</v>
       </c>
       <c r="G9">
-        <v>16.95486012707266</v>
+        <v>16.95486012707267</v>
       </c>
       <c r="H9">
-        <v>8.920331298104234</v>
+        <v>8.920331298104209</v>
       </c>
       <c r="I9">
-        <v>96.87630616318134</v>
+        <v>99.17806388997992</v>
       </c>
       <c r="J9">
-        <v>103.5042563503885</v>
+        <v>98.29226142084414</v>
       </c>
       <c r="K9">
-        <v>67.01753247136233</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -932,31 +932,31 @@
         <v>45</v>
       </c>
       <c r="D10">
-        <v>89.43790644418048</v>
+        <v>90.18647120525813</v>
       </c>
       <c r="E10">
-        <v>70.53096541497084</v>
+        <v>70.53093812879278</v>
       </c>
       <c r="F10">
-        <v>54.5167060700469</v>
+        <v>54.48887868957833</v>
       </c>
       <c r="G10">
-        <v>38.64497780342675</v>
+        <v>38.63704632952433</v>
       </c>
       <c r="H10">
-        <v>24.97007981035638</v>
+        <v>25.04222603233509</v>
       </c>
       <c r="I10">
-        <v>8.497022417133124</v>
+        <v>8.828735920095124</v>
       </c>
       <c r="J10">
-        <v>6.529680508612604</v>
+        <v>6.381066323769248</v>
       </c>
       <c r="K10">
-        <v>6.517470068739334</v>
+        <v>6.214494153940019</v>
       </c>
       <c r="L10">
-        <v>6.50424886406117</v>
+        <v>6.201595091611531</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -970,31 +970,31 @@
         <v>46</v>
       </c>
       <c r="D11">
-        <v>2.045879952506027</v>
+        <v>1.297315191427922</v>
       </c>
       <c r="E11">
-        <v>2.938790225623785</v>
+        <v>2.938789088699699</v>
       </c>
       <c r="F11">
-        <v>2.272120969866953</v>
+        <v>2.299947459018159</v>
       </c>
       <c r="G11">
-        <v>1.611968649883446</v>
+        <v>1.619899232469052</v>
       </c>
       <c r="H11">
-        <v>1.040419992098183</v>
+        <v>1.060501619019224</v>
       </c>
       <c r="I11">
-        <v>0.3565219557447927</v>
+        <v>0.3754766474817305</v>
       </c>
       <c r="J11">
-        <v>0.2720700211921917</v>
+        <v>0.2692722071155245</v>
       </c>
       <c r="K11">
-        <v>0.2727212438800447</v>
+        <v>0.2646807750230714</v>
       </c>
       <c r="L11">
-        <v>0.2711797550513598</v>
+        <v>0.262817143844709</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1008,7 +1008,7 @@
         <v>47</v>
       </c>
       <c r="D12">
-        <v>367.9827518853834</v>
+        <v>363.3254150977371</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1046,22 +1046,22 @@
         <v>48</v>
       </c>
       <c r="D13">
-        <v>31.99850016394638</v>
+        <v>31.59351435632496</v>
       </c>
       <c r="E13">
-        <v>229.560435017859</v>
+        <v>246.8233447964307</v>
       </c>
       <c r="F13">
-        <v>978.8169640754113</v>
+        <v>922.9300000000001</v>
       </c>
       <c r="G13">
-        <v>192.1904073250413</v>
+        <v>192.1938539556827</v>
       </c>
       <c r="H13">
-        <v>171.2273476273267</v>
+        <v>243.4326703702419</v>
       </c>
       <c r="I13">
-        <v>150.7620693968838</v>
+        <v>150.7655160275196</v>
       </c>
       <c r="J13">
         <v>134.2537363169935</v>
@@ -1084,31 +1084,31 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>660.8185299680637</v>
+        <v>626.6475124611203</v>
       </c>
       <c r="E14">
-        <v>485.7192294184405</v>
+        <v>485.3505141268833</v>
       </c>
       <c r="F14">
-        <v>420.6133951823094</v>
+        <v>425.4349752743958</v>
       </c>
       <c r="G14">
-        <v>312.8322092225869</v>
+        <v>312.8322092225898</v>
       </c>
       <c r="H14">
-        <v>340.8273285295489</v>
+        <v>346.7122723839952</v>
       </c>
       <c r="I14">
-        <v>297.5343512677802</v>
+        <v>297.5343512677808</v>
       </c>
       <c r="J14">
-        <v>251.983479545328</v>
+        <v>284.727095531444</v>
       </c>
       <c r="K14">
         <v>255.3149543392304</v>
       </c>
       <c r="L14">
-        <v>291.6501100382823</v>
+        <v>258.11034738388</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1122,13 +1122,13 @@
         <v>50</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>81.4287728056823</v>
       </c>
       <c r="E15">
-        <v>63.11605806002335</v>
+        <v>63.0681459034933</v>
       </c>
       <c r="F15">
-        <v>54.65597790504585</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>38.6626558144573</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1160,31 +1160,31 @@
         <v>51</v>
       </c>
       <c r="D16">
-        <v>85.86907451562406</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>55.28251091136217</v>
       </c>
       <c r="G16">
-        <v>40.65051306282203</v>
+        <v>40.65051306282241</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>38.66265581445739</v>
       </c>
       <c r="J16">
-        <v>32.74361598611607</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>33.17651949040845</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>33.53976265440248</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1198,31 +1198,31 @@
         <v>52</v>
       </c>
       <c r="D17">
-        <v>20.46669384857158</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>44.84035865580614</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>57.87964967218958</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>9.781483119838105</v>
       </c>
       <c r="H17">
-        <v>49.347284684516</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>49.347284684516</v>
+        <v>64.49937466140561</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>42.20164360670623</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>21.8550253172613</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1236,31 +1236,31 @@
         <v>53</v>
       </c>
       <c r="D18">
-        <v>26.04851944363656</v>
+        <v>57.65256582217714</v>
       </c>
       <c r="E18">
-        <v>57.06954738011692</v>
+        <v>105.8602232698186</v>
       </c>
       <c r="F18">
-        <v>73.66500867369587</v>
+        <v>132.5500375004538</v>
       </c>
       <c r="G18">
-        <v>321.6529197375364</v>
+        <v>221.9491603343394</v>
       </c>
       <c r="H18">
-        <v>467.9527934537498</v>
+        <v>356.089487866831</v>
       </c>
       <c r="I18">
-        <v>467.9527934537497</v>
+        <v>470.1491652712052</v>
       </c>
       <c r="J18">
-        <v>167.2749974780712</v>
+        <v>167.7252109995482</v>
       </c>
       <c r="K18">
-        <v>53.71118277217158</v>
+        <v>69.81218464979047</v>
       </c>
       <c r="L18">
-        <v>146.4198063276768</v>
+        <v>27.81548676742348</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1274,31 +1274,31 @@
         <v>54</v>
       </c>
       <c r="D19">
-        <v>336.0475347182601</v>
+        <v>332.7231124461264</v>
       </c>
       <c r="E19">
-        <v>237.0442555487444</v>
+        <v>235.1518539840074</v>
       </c>
       <c r="F19">
-        <v>123.0246153924193</v>
+        <v>140.647097854496</v>
       </c>
       <c r="G19">
-        <v>94.72757638277113</v>
+        <v>55.15962868114715</v>
       </c>
       <c r="H19">
-        <v>14.05059335655602</v>
+        <v>14.27064563564814</v>
       </c>
       <c r="I19">
-        <v>0.4832547138853291</v>
+        <v>0.4832547138946338</v>
       </c>
       <c r="J19">
-        <v>0.4942067413844429</v>
+        <v>0.4942067413830352</v>
       </c>
       <c r="K19">
-        <v>0.5039225300154668</v>
+        <v>1.500567919456943</v>
       </c>
       <c r="L19">
-        <v>0.5124073067967977</v>
+        <v>0.5124073067965966</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1312,16 +1312,16 @@
         <v>55</v>
       </c>
       <c r="D20">
-        <v>337.0330688028924</v>
+        <v>337.0330688028917</v>
       </c>
       <c r="E20">
-        <v>220.7514151375845</v>
+        <v>220.7514151375835</v>
       </c>
       <c r="F20">
-        <v>165.9303309005127</v>
+        <v>165.9303309005209</v>
       </c>
       <c r="G20">
-        <v>74.42071549319027</v>
+        <v>74.42071549319024</v>
       </c>
       <c r="H20">
         <v>37.94389684124531</v>
@@ -1347,25 +1347,25 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>142.3208776082275</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>65.76077263054985</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>67.58871776035602</v>
+        <v>27.80221487976925</v>
       </c>
       <c r="I21">
-        <v>51.29381798858537</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1385,34 +1385,34 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22">
-        <v>160.3193272035556</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>142.3208776082261</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>122.4013839495893</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>884.3132294140614</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H22">
-        <v>1080.28803083662</v>
+        <v>63.07080665658491</v>
       </c>
       <c r="I22">
-        <v>1576.337373636005</v>
+        <v>37.69170992043686</v>
       </c>
       <c r="J22">
-        <v>1132.272675178642</v>
+        <v>29.23716069703047</v>
       </c>
       <c r="K22">
-        <v>1434.776459332127</v>
+        <v>23.93650599649423</v>
       </c>
       <c r="L22">
-        <v>1164.847720187604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1420,37 +1420,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>3.697997709333334</v>
+        <v>160.3193272035556</v>
       </c>
       <c r="E23">
-        <v>70.06236026914732</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>75.48057716826652</v>
+        <v>122.2972017053686</v>
       </c>
       <c r="G23">
-        <v>80.27091597268885</v>
+        <v>735.6836071240986</v>
       </c>
       <c r="H23">
-        <v>82.92984855494905</v>
+        <v>910.5511933434151</v>
       </c>
       <c r="I23">
-        <v>85.08496336297658</v>
+        <v>1588.377211997911</v>
       </c>
       <c r="J23">
-        <v>82.5353961466877</v>
+        <v>1098.728201446008</v>
       </c>
       <c r="K23">
-        <v>82.37546353139349</v>
+        <v>1474.631938383179</v>
       </c>
       <c r="L23">
-        <v>84.47767829274228</v>
+        <v>1316.105263641376</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1458,37 +1458,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24">
-        <v>4482.094054054053</v>
+        <v>3.697997709333333</v>
       </c>
       <c r="E24">
-        <v>4481.220540540539</v>
+        <v>70.06435247377331</v>
       </c>
       <c r="F24">
-        <v>4397.694054054054</v>
+        <v>75.47859857302812</v>
       </c>
       <c r="G24">
-        <v>4257.627424797737</v>
+        <v>80.27495632510974</v>
       </c>
       <c r="H24">
-        <v>4510.910758097408</v>
+        <v>82.93382525590641</v>
       </c>
       <c r="I24">
-        <v>4395.55442995195</v>
+        <v>85.0793523884777</v>
       </c>
       <c r="J24">
-        <v>6410.31769625711</v>
+        <v>82.51053308492364</v>
       </c>
       <c r="K24">
-        <v>7427.356838083986</v>
+        <v>81.55724015971707</v>
       </c>
       <c r="L24">
-        <v>7650.477013324661</v>
+        <v>83.90637591409769</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1496,37 +1496,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25">
-        <v>1566.885041340712</v>
+        <v>4482.094054054052</v>
       </c>
       <c r="E25">
-        <v>1316.290887465191</v>
+        <v>4481.220540540539</v>
       </c>
       <c r="F25">
-        <v>891.4326382534269</v>
+        <v>4397.694054054054</v>
       </c>
       <c r="G25">
-        <v>932.323988205296</v>
+        <v>4385.773289037316</v>
       </c>
       <c r="H25">
-        <v>940.1629608245426</v>
+        <v>4446.046621106423</v>
       </c>
       <c r="I25">
-        <v>854.8524971392632</v>
+        <v>4567.00230470039</v>
       </c>
       <c r="J25">
-        <v>823.3052968105569</v>
+        <v>6314.112473305002</v>
       </c>
       <c r="K25">
-        <v>1122.309144470385</v>
+        <v>7486.988703031983</v>
       </c>
       <c r="L25">
-        <v>1124.788787992362</v>
+        <v>7670.723386592312</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1534,37 +1534,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>1367.09982614031</v>
+        <v>1586.849891304574</v>
       </c>
       <c r="E26">
-        <v>1194.628344123332</v>
+        <v>1331.625002803212</v>
       </c>
       <c r="F26">
-        <v>1023.208345104933</v>
+        <v>889.5813112473735</v>
       </c>
       <c r="G26">
-        <v>901.7586010949755</v>
+        <v>934.6551075707804</v>
       </c>
       <c r="H26">
-        <v>744.5987546582314</v>
+        <v>879.0306545527937</v>
       </c>
       <c r="I26">
-        <v>561.6618126858351</v>
+        <v>818.6538880400656</v>
       </c>
       <c r="J26">
-        <v>1476.657720077167</v>
+        <v>820.8403566634036</v>
       </c>
       <c r="K26">
-        <v>1565.965826629299</v>
+        <v>1122.595099457046</v>
       </c>
       <c r="L26">
-        <v>1620.730587223041</v>
+        <v>1136.672276280948</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1572,37 +1572,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1411.602742011618</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1192.246962616761</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1023.690055921079</v>
       </c>
       <c r="G27">
-        <v>15.01487137773027</v>
+        <v>962.3280225712018</v>
       </c>
       <c r="H27">
-        <v>128.231</v>
+        <v>880.9035160806659</v>
       </c>
       <c r="I27">
-        <v>115.366079688188</v>
+        <v>632.5020539186536</v>
       </c>
       <c r="J27">
-        <v>125.6022956411434</v>
+        <v>1477.482970953871</v>
       </c>
       <c r="K27">
-        <v>102.8001961231523</v>
+        <v>1609.286663801675</v>
       </c>
       <c r="L27">
-        <v>135.4843706970864</v>
+        <v>1869.174554644141</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1613,34 +1613,34 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28">
-        <v>52.75871300533337</v>
+        <v>128.231</v>
       </c>
       <c r="E28">
-        <v>40.10079908079102</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>24.72570117195235</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>15.01487137773027</v>
       </c>
       <c r="H28">
-        <v>1.21954609062024</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>115.366079688188</v>
       </c>
       <c r="J28">
-        <v>52.75871300533337</v>
+        <v>180.9897130053334</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>102.8001961231531</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>104.5310905865141</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1651,10 +1651,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29">
-        <v>128.231</v>
+        <v>52.75871300533335</v>
       </c>
       <c r="E29">
         <v>128.231</v>
@@ -1666,7 +1666,7 @@
         <v>128.231</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>129.4505460906203</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1686,25 +1686,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D30">
-        <v>221.8657362454363</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>72.36440253085061</v>
+        <v>40.10079908079243</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>6.628837137334927</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>170.2557310313548</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1727,25 +1727,25 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>220.8657362454363</v>
+        <v>296.185326615842</v>
       </c>
       <c r="F31">
-        <v>219.5998106496053</v>
+        <v>219.8616864993834</v>
       </c>
       <c r="G31">
-        <v>292.2301387762869</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>141.8823266158421</v>
       </c>
       <c r="I31">
-        <v>84.96673105630975</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D32">
-        <v>1546.915509784149</v>
+        <v>154.3029999999999</v>
       </c>
       <c r="E32">
-        <v>1546.915509784149</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1085.113819274451</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>56.93898251129917</v>
+        <v>295.1853266158421</v>
       </c>
       <c r="H32">
-        <v>32.80675215886573</v>
+        <v>29.83251048406214</v>
       </c>
       <c r="I32">
-        <v>12.18646341844104</v>
+        <v>84.96673105631002</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1800,37 +1800,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D33">
-        <v>194.3254201987315</v>
+        <v>1543.917504184275</v>
       </c>
       <c r="E33">
-        <v>416.9587578070195</v>
+        <v>1543.917504184275</v>
       </c>
       <c r="F33">
-        <v>540.2135850071824</v>
+        <v>1126.093874089656</v>
       </c>
       <c r="G33">
-        <v>1336.179574050868</v>
+        <v>56.93898251129993</v>
       </c>
       <c r="H33">
-        <v>2158.396387859973</v>
+        <v>33.08790880994832</v>
       </c>
       <c r="I33">
-        <v>2133.255741495854</v>
+        <v>12.18646341843491</v>
       </c>
       <c r="J33">
-        <v>697.5871130549691</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>399.9853694055793</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>959.3978161076618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1838,37 +1838,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>232.9978786854145</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>433.2230057783739</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>544.4063188438284</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>960.925126184803</v>
       </c>
       <c r="H34">
-        <v>105.5838531796821</v>
+        <v>1486.049742321964</v>
       </c>
       <c r="I34">
-        <v>1434.368301433196</v>
+        <v>1030.876409773433</v>
       </c>
       <c r="J34">
-        <v>2632.176905545863</v>
+        <v>699.4646390178463</v>
       </c>
       <c r="K34">
-        <v>2668.622759560035</v>
+        <v>291.1378333889496</v>
       </c>
       <c r="L34">
-        <v>2698.947828510343</v>
+        <v>207.1152038172915</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1876,37 +1876,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D35">
-        <v>416.4377618149538</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>464.9523388764882</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>572.2942668886411</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>543.5708985175081</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>162.1434330813901</v>
+        <v>120.017619754976</v>
       </c>
       <c r="I35">
-        <v>83.32504816039568</v>
+        <v>2585.30143742292</v>
       </c>
       <c r="J35">
-        <v>365.8850585561952</v>
+        <v>2632.176905545855</v>
       </c>
       <c r="K35">
-        <v>367.6749742238162</v>
+        <v>2668.622759560041</v>
       </c>
       <c r="L35">
-        <v>16.58628020052391</v>
+        <v>2698.947828510337</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1917,34 +1917,34 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36">
-        <v>21.91777693762915</v>
+        <v>405.1215360308059</v>
       </c>
       <c r="E36">
-        <v>31.47908026560383</v>
+        <v>445.8366351146777</v>
       </c>
       <c r="F36">
-        <v>144.8846245287699</v>
+        <v>551.4612009253559</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>518.1780799901919</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>163.223812517635</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>83.32504816039568</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>366.3115170555636</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>355.8865105491306</v>
       </c>
       <c r="L36">
-        <v>26.70866830917002</v>
+        <v>134.7393844506457</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1955,34 +1955,34 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>21.32218610688453</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>63.6909478735254</v>
       </c>
       <c r="F37">
-        <v>7.244231226438495</v>
+        <v>139.6104306140141</v>
       </c>
       <c r="G37">
-        <v>10.15157874990253</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>4.442285837846304</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>3.02215200581746</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>16.57319080568132</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>20.03150123187751</v>
+        <v>15.64480818690643</v>
       </c>
       <c r="L37">
-        <v>2.76350735168259</v>
+        <v>303.2838227342453</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1990,37 +1990,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>6.980521530700706</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>9.677349541412756</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>4.471885274455754</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>3.022152005817461</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>16.59250774119227</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>20.24160084502136</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>27.9589281181845</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2028,28 +2028,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D39">
-        <v>197.2648990176019</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>182.7514885892257</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>158.1935340192581</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>742.2442633857598</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>699.8052573339967</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>23.01887534593257</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2066,28 +2066,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D40">
-        <v>1320.52146528174</v>
+        <v>198.2396349181442</v>
       </c>
       <c r="E40">
-        <v>1180.068744451256</v>
+        <v>183.3556986786033</v>
       </c>
       <c r="F40">
-        <v>1295.795384607581</v>
+        <v>158.1935340192578</v>
       </c>
       <c r="G40">
-        <v>991.2022793430169</v>
+        <v>1449.442057888681</v>
       </c>
       <c r="H40">
-        <v>352.1069520498949</v>
+        <v>1410.2434963856</v>
       </c>
       <c r="I40">
-        <v>131.6815074936437</v>
+        <v>23.01887534593261</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2104,36 +2104,74 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>1323.845887553874</v>
+      </c>
+      <c r="E41">
+        <v>1181.961146015993</v>
+      </c>
+      <c r="F41">
+        <v>1278.172902145504</v>
+      </c>
+      <c r="G41">
+        <v>629.9796735372279</v>
+      </c>
+      <c r="H41">
+        <v>355.1245385205661</v>
+      </c>
+      <c r="I41">
+        <v>131.6815074936328</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>5.751545010855764</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>36</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>47</v>
       </c>
-      <c r="D41">
-        <v>245.4342348242256</v>
-      </c>
-      <c r="E41">
-        <v>227.3515542568345</v>
-      </c>
-      <c r="F41">
-        <v>196.777322804443</v>
-      </c>
-      <c r="G41">
-        <v>132.7045640787552</v>
-      </c>
-      <c r="H41">
-        <v>76.926177475961</v>
-      </c>
-      <c r="I41">
-        <v>28.77359418241569</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="D42">
+        <v>246.6469876307143</v>
+      </c>
+      <c r="E42">
+        <v>228.1032203799364</v>
+      </c>
+      <c r="F42">
+        <v>196.7773228044427</v>
+      </c>
+      <c r="G42">
+        <v>132.7045640787555</v>
+      </c>
+      <c r="H42">
+        <v>77.58544134746506</v>
+      </c>
+      <c r="I42">
+        <v>28.77359418241575</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
         <v>0</v>
       </c>
     </row>

--- a/TEMOA_Europe_Results/_5_Industry_fueltechs.xlsx
+++ b/TEMOA_Europe_Results/_5_Industry_fueltechs.xlsx
@@ -628,31 +628,31 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>3437.953937235873</v>
+        <v>3445.996071898185</v>
       </c>
       <c r="E2">
-        <v>3375.659707073048</v>
+        <v>3440.590117961904</v>
       </c>
       <c r="F2">
-        <v>2832.539519142019</v>
+        <v>3074.847792316134</v>
       </c>
       <c r="G2">
-        <v>2719.557105779324</v>
+        <v>1572.18750281531</v>
       </c>
       <c r="H2">
-        <v>2655.562292056018</v>
+        <v>2978.431393750288</v>
       </c>
       <c r="I2">
-        <v>2596.742213850473</v>
+        <v>2395.791844310626</v>
       </c>
       <c r="J2">
-        <v>1872.788329078199</v>
+        <v>1822.133283925412</v>
       </c>
       <c r="K2">
-        <v>1012.485155548387</v>
+        <v>991.4736618981246</v>
       </c>
       <c r="L2">
-        <v>75.25177118579278</v>
+        <v>618.8103820159266</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -666,19 +666,19 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>180.9449440650459</v>
+        <v>181.3682143104308</v>
       </c>
       <c r="E3">
-        <v>16.79379893076254</v>
+        <v>10.15925098871326</v>
       </c>
       <c r="F3">
-        <v>693.4503535541096</v>
+        <v>147.3939683815538</v>
       </c>
       <c r="G3">
-        <v>225.3813604965705</v>
+        <v>808.3226235554295</v>
       </c>
       <c r="H3">
-        <v>36.24246184009791</v>
+        <v>277.8207071407793</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>139.9132704560625</v>
       </c>
       <c r="L3">
-        <v>1223.667850756608</v>
+        <v>518.2183855588952</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -710,25 +710,25 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7.350564941983898</v>
+        <v>12.77807870661864</v>
       </c>
       <c r="G4">
-        <v>54.99885081330193</v>
+        <v>44.45774429554863</v>
       </c>
       <c r="H4">
-        <v>73.7480754492081</v>
+        <v>89.21238632578266</v>
       </c>
       <c r="I4">
-        <v>94.18236008784098</v>
+        <v>86.89400471592936</v>
       </c>
       <c r="J4">
-        <v>84.83013337288028</v>
+        <v>82.53565397571556</v>
       </c>
       <c r="K4">
-        <v>55.1617571564147</v>
+        <v>61.63970984706452</v>
       </c>
       <c r="L4">
-        <v>82.90976310270652</v>
+        <v>72.5763043132865</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -742,28 +742,28 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>75.11967195474841</v>
+        <v>128.4159293658977</v>
       </c>
       <c r="E5">
-        <v>48.16987803751214</v>
+        <v>46.74220073301024</v>
       </c>
       <c r="F5">
-        <v>39.6475695775033</v>
+        <v>39.64756957750294</v>
       </c>
       <c r="G5">
-        <v>272.0851918345229</v>
+        <v>858.4831749185696</v>
       </c>
       <c r="H5">
-        <v>258.1496654499238</v>
+        <v>282.2964590728199</v>
       </c>
       <c r="I5">
-        <v>536.8023115372472</v>
+        <v>822.6185448205496</v>
       </c>
       <c r="J5">
-        <v>1.976826965537877</v>
+        <v>1.976826965537904</v>
       </c>
       <c r="K5">
-        <v>2.015690120061799</v>
+        <v>2.015690120061825</v>
       </c>
       <c r="L5">
         <v>2.049629227186553</v>
@@ -783,16 +783,16 @@
         <v>1138.89</v>
       </c>
       <c r="E6">
-        <v>867.4506733841578</v>
+        <v>932.3964115225265</v>
       </c>
       <c r="F6">
-        <v>782.2673135006169</v>
+        <v>824.4388791452938</v>
       </c>
       <c r="G6">
-        <v>1986.16019082154</v>
+        <v>679.565760760542</v>
       </c>
       <c r="H6">
-        <v>1462.172743932271</v>
+        <v>71.39763684731844</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>711.556587082038</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -818,7 +818,7 @@
         <v>42</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>71.39763684731844</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -827,22 +827,22 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>171.2398649252833</v>
       </c>
       <c r="H7">
-        <v>462.5319202930226</v>
+        <v>868.3898434678495</v>
       </c>
       <c r="I7">
-        <v>1001.106999413664</v>
+        <v>1001.949075647482</v>
       </c>
       <c r="J7">
-        <v>982.8866003079697</v>
+        <v>1005.302283046533</v>
       </c>
       <c r="K7">
-        <v>975.8914889251472</v>
+        <v>983.2467772242087</v>
       </c>
       <c r="L7">
-        <v>983.0170920863876</v>
+        <v>278.7960082502556</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -856,31 +856,31 @@
         <v>43</v>
       </c>
       <c r="D8">
-        <v>304.3651210914079</v>
+        <v>305.7091508590141</v>
       </c>
       <c r="E8">
-        <v>345.8343596765586</v>
+        <v>345.8348381573011</v>
       </c>
       <c r="F8">
-        <v>366.2337595701145</v>
+        <v>366.2338112664893</v>
       </c>
       <c r="G8">
-        <v>400.3202946358804</v>
+        <v>397.2630689164557</v>
       </c>
       <c r="H8">
-        <v>410.604733198881</v>
+        <v>410.8659830687098</v>
       </c>
       <c r="I8">
-        <v>417.5408639279782</v>
+        <v>420.2602282002913</v>
       </c>
       <c r="J8">
-        <v>404.9965163403901</v>
+        <v>439.4675831538476</v>
       </c>
       <c r="K8">
-        <v>380.6841664979671</v>
+        <v>392.6359046720008</v>
       </c>
       <c r="L8">
-        <v>379.7483267011575</v>
+        <v>391.6685194757576</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -894,28 +894,28 @@
         <v>44</v>
       </c>
       <c r="D9">
-        <v>41.05844661397896</v>
+        <v>41.05844661397853</v>
       </c>
       <c r="E9">
-        <v>33.02391778500957</v>
+        <v>33.02391778500955</v>
       </c>
       <c r="F9">
-        <v>24.98938895604081</v>
+        <v>24.98938895604033</v>
       </c>
       <c r="G9">
-        <v>16.95486012707267</v>
+        <v>16.95486012707633</v>
       </c>
       <c r="H9">
-        <v>8.920331298104209</v>
+        <v>8.932447783459921</v>
       </c>
       <c r="I9">
-        <v>99.17806388997992</v>
+        <v>102.9254707395301</v>
       </c>
       <c r="J9">
-        <v>98.29226142084414</v>
+        <v>103.2874842322735</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>92.55724829562763</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -932,31 +932,31 @@
         <v>45</v>
       </c>
       <c r="D10">
-        <v>90.18647120525813</v>
+        <v>90.32611931557479</v>
       </c>
       <c r="E10">
-        <v>70.53093812879278</v>
+        <v>70.53096541497085</v>
       </c>
       <c r="F10">
-        <v>54.48887868957833</v>
+        <v>54.50080519847575</v>
       </c>
       <c r="G10">
-        <v>38.63704632952433</v>
+        <v>38.58685861301517</v>
       </c>
       <c r="H10">
-        <v>25.04222603233509</v>
+        <v>23.45410118689351</v>
       </c>
       <c r="I10">
-        <v>8.828735920095124</v>
+        <v>8.922429922425675</v>
       </c>
       <c r="J10">
-        <v>6.381066323769248</v>
+        <v>7.039898537897693</v>
       </c>
       <c r="K10">
-        <v>6.214494153940019</v>
+        <v>6.708962833457946</v>
       </c>
       <c r="L10">
-        <v>6.201595091611531</v>
+        <v>6.693646711890859</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -970,31 +970,31 @@
         <v>46</v>
       </c>
       <c r="D11">
-        <v>1.297315191427922</v>
+        <v>1.157667081111701</v>
       </c>
       <c r="E11">
-        <v>2.938789088699699</v>
+        <v>2.938790225623786</v>
       </c>
       <c r="F11">
-        <v>2.299947459018159</v>
+        <v>2.288021841438131</v>
       </c>
       <c r="G11">
-        <v>1.619899232469052</v>
+        <v>1.617376160712282</v>
       </c>
       <c r="H11">
-        <v>1.060501619019224</v>
+        <v>1.001659026833846</v>
       </c>
       <c r="I11">
-        <v>0.3754766474817305</v>
+        <v>0.3786856181176825</v>
       </c>
       <c r="J11">
-        <v>0.2692722071155245</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2646807750230714</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.262817143844709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1008,7 +1008,7 @@
         <v>47</v>
       </c>
       <c r="D12">
-        <v>363.3254150977371</v>
+        <v>419.4612871696519</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1046,22 +1046,22 @@
         <v>48</v>
       </c>
       <c r="D13">
-        <v>31.59351435632496</v>
+        <v>36.47489453649147</v>
       </c>
       <c r="E13">
-        <v>246.8233447964307</v>
+        <v>267.77839246019</v>
       </c>
       <c r="F13">
-        <v>922.9300000000001</v>
+        <v>1088.661501715415</v>
       </c>
       <c r="G13">
-        <v>192.1938539556827</v>
+        <v>869.2815782822527</v>
       </c>
       <c r="H13">
-        <v>243.4326703702419</v>
+        <v>218.9450244384754</v>
       </c>
       <c r="I13">
-        <v>150.7655160275196</v>
+        <v>150.7356559359649</v>
       </c>
       <c r="J13">
         <v>134.2537363169935</v>
@@ -1070,7 +1070,7 @@
         <v>135.8893306160453</v>
       </c>
       <c r="L13">
-        <v>137.2542760650023</v>
+        <v>137.2542760650024</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1084,25 +1084,25 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>626.6475124611203</v>
+        <v>643.1551186907114</v>
       </c>
       <c r="E14">
-        <v>485.3505141268833</v>
+        <v>554.884381587018</v>
       </c>
       <c r="F14">
-        <v>425.4349752743958</v>
+        <v>447.4071137304986</v>
       </c>
       <c r="G14">
-        <v>312.8322092225898</v>
+        <v>313.0551083482084</v>
       </c>
       <c r="H14">
-        <v>346.7122723839952</v>
+        <v>347.2750455208721</v>
       </c>
       <c r="I14">
-        <v>297.5343512677808</v>
+        <v>297.5343512677802</v>
       </c>
       <c r="J14">
-        <v>284.727095531444</v>
+        <v>251.983479545328</v>
       </c>
       <c r="K14">
         <v>255.3149543392304</v>
@@ -1122,16 +1122,16 @@
         <v>50</v>
       </c>
       <c r="D15">
-        <v>81.4287728056823</v>
+        <v>83.57382898240884</v>
       </c>
       <c r="E15">
-        <v>63.0681459034933</v>
+        <v>72.10362020622267</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>58.13764754690093</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>40.67947735598188</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1166,22 +1166,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>55.28251091136217</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>40.65051306282241</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>38.66265581445739</v>
+        <v>38.6626558144573</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>32.74361598611608</v>
       </c>
       <c r="K16">
-        <v>33.17651949040845</v>
+        <v>33.17651949040847</v>
       </c>
       <c r="L16">
         <v>33.53976265440248</v>
@@ -1201,28 +1201,28 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>38.43785937049067</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>40.33594428788032</v>
       </c>
       <c r="G17">
-        <v>9.781483119838105</v>
+        <v>293.2279665566911</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>92.17999999999998</v>
       </c>
       <c r="I17">
-        <v>64.49937466140561</v>
+        <v>92.17999999999998</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>70.58525516806905</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.8550253172613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1236,31 +1236,31 @@
         <v>53</v>
       </c>
       <c r="D18">
-        <v>57.65256582217714</v>
+        <v>41.53892462255217</v>
       </c>
       <c r="E18">
-        <v>105.8602232698186</v>
+        <v>48.92091192607905</v>
       </c>
       <c r="F18">
-        <v>132.5500375004538</v>
+        <v>51.33665636639316</v>
       </c>
       <c r="G18">
-        <v>221.9491603343394</v>
+        <v>373.1992301630615</v>
       </c>
       <c r="H18">
-        <v>356.089487866831</v>
+        <v>448.338522204096</v>
       </c>
       <c r="I18">
-        <v>470.1491652712052</v>
+        <v>444.3968968955722</v>
       </c>
       <c r="J18">
-        <v>167.7252109995482</v>
+        <v>89.83577930481519</v>
       </c>
       <c r="K18">
-        <v>69.81218464979047</v>
+        <v>60.27935232741814</v>
       </c>
       <c r="L18">
-        <v>27.81548676742348</v>
+        <v>36.04636752362698</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1274,31 +1274,31 @@
         <v>54</v>
       </c>
       <c r="D19">
-        <v>332.7231124461264</v>
+        <v>345.8030743679377</v>
       </c>
       <c r="E19">
-        <v>235.1518539840074</v>
+        <v>307.7561732238328</v>
       </c>
       <c r="F19">
-        <v>140.647097854496</v>
+        <v>115.6528970119132</v>
       </c>
       <c r="G19">
-        <v>55.15962868114715</v>
+        <v>169.4309684347078</v>
       </c>
       <c r="H19">
-        <v>14.27064563564814</v>
+        <v>10.82793415458269</v>
       </c>
       <c r="I19">
-        <v>0.4832547138946338</v>
+        <v>0.4832547138855147</v>
       </c>
       <c r="J19">
-        <v>0.4942067413830352</v>
+        <v>0.4942067413845496</v>
       </c>
       <c r="K19">
-        <v>1.500567919456943</v>
+        <v>0.503922530015446</v>
       </c>
       <c r="L19">
-        <v>0.5124073067965966</v>
+        <v>0.5124073067966322</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1312,19 +1312,19 @@
         <v>55</v>
       </c>
       <c r="D20">
-        <v>337.0330688028917</v>
+        <v>183.8511714490251</v>
       </c>
       <c r="E20">
-        <v>220.7514151375835</v>
+        <v>147.3743527970803</v>
       </c>
       <c r="F20">
-        <v>165.9303309005209</v>
+        <v>110.8975341451351</v>
       </c>
       <c r="G20">
-        <v>74.42071549319024</v>
+        <v>94.80323280999674</v>
       </c>
       <c r="H20">
-        <v>37.94389684124531</v>
+        <v>37.94389684124523</v>
       </c>
       <c r="I20">
         <v>1.467078189300412</v>
@@ -1350,10 +1350,10 @@
         <v>38</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>160.3193272035556</v>
       </c>
       <c r="E21">
-        <v>142.3208776082275</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27.80221487976925</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1397,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>71.40000000000001</v>
+        <v>50.39189240535818</v>
       </c>
       <c r="H22">
-        <v>63.07080665658491</v>
+        <v>63.82845570806246</v>
       </c>
       <c r="I22">
-        <v>37.69170992043686</v>
+        <v>36.26435803984954</v>
       </c>
       <c r="J22">
-        <v>29.23716069703047</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>23.93650599649423</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1426,31 +1426,31 @@
         <v>57</v>
       </c>
       <c r="D23">
-        <v>160.3193272035556</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>142.3208776082261</v>
       </c>
       <c r="F23">
-        <v>122.2972017053686</v>
+        <v>122.4013839495879</v>
       </c>
       <c r="G23">
-        <v>735.6836071240986</v>
+        <v>784.5391115583736</v>
       </c>
       <c r="H23">
-        <v>910.5511933434151</v>
+        <v>1073.000454434039</v>
       </c>
       <c r="I23">
-        <v>1588.377211997911</v>
+        <v>1590.833987631587</v>
       </c>
       <c r="J23">
-        <v>1098.728201446008</v>
+        <v>1136.739932323502</v>
       </c>
       <c r="K23">
-        <v>1474.631938383179</v>
+        <v>1590.151169348101</v>
       </c>
       <c r="L23">
-        <v>1316.105263641376</v>
+        <v>1422.663652594583</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1467,28 +1467,28 @@
         <v>3.697997709333333</v>
       </c>
       <c r="E24">
-        <v>70.06435247377331</v>
+        <v>70.06236026914732</v>
       </c>
       <c r="F24">
-        <v>75.47859857302812</v>
+        <v>74.4417826574449</v>
       </c>
       <c r="G24">
-        <v>80.27495632510974</v>
+        <v>80.25967979660957</v>
       </c>
       <c r="H24">
-        <v>82.93382525590641</v>
+        <v>82.9187893928966</v>
       </c>
       <c r="I24">
-        <v>85.0793523884777</v>
+        <v>85.07407790504006</v>
       </c>
       <c r="J24">
-        <v>82.51053308492364</v>
+        <v>82.77431748970773</v>
       </c>
       <c r="K24">
-        <v>81.55724015971707</v>
+        <v>96.21480830755867</v>
       </c>
       <c r="L24">
-        <v>83.90637591409769</v>
+        <v>82.83830347185753</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1502,31 +1502,31 @@
         <v>59</v>
       </c>
       <c r="D25">
-        <v>4482.094054054052</v>
+        <v>4482.094054054054</v>
       </c>
       <c r="E25">
-        <v>4481.220540540539</v>
+        <v>4481.220540540541</v>
       </c>
       <c r="F25">
         <v>4397.694054054054</v>
       </c>
       <c r="G25">
-        <v>4385.773289037316</v>
+        <v>4404.683368811924</v>
       </c>
       <c r="H25">
-        <v>4446.046621106423</v>
+        <v>4607.86542697703</v>
       </c>
       <c r="I25">
-        <v>4567.00230470039</v>
+        <v>4518.553305445087</v>
       </c>
       <c r="J25">
-        <v>6314.112473305002</v>
+        <v>6348.667197450452</v>
       </c>
       <c r="K25">
-        <v>7486.988703031983</v>
+        <v>7252.679779279598</v>
       </c>
       <c r="L25">
-        <v>7670.723386592312</v>
+        <v>7648.700460929009</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1540,31 +1540,31 @@
         <v>60</v>
       </c>
       <c r="D26">
-        <v>1586.849891304574</v>
+        <v>1638.135159657192</v>
       </c>
       <c r="E26">
-        <v>1331.625002803212</v>
+        <v>1517.414143703676</v>
       </c>
       <c r="F26">
-        <v>889.5813112473735</v>
+        <v>915.7132736256646</v>
       </c>
       <c r="G26">
-        <v>934.6551075707804</v>
+        <v>963.3408914798647</v>
       </c>
       <c r="H26">
-        <v>879.0306545527937</v>
+        <v>892.730634608572</v>
       </c>
       <c r="I26">
-        <v>818.6538880400656</v>
+        <v>850.3051612945184</v>
       </c>
       <c r="J26">
-        <v>820.8403566634036</v>
+        <v>826.0383902079138</v>
       </c>
       <c r="K26">
-        <v>1122.595099457046</v>
+        <v>1046.490362955893</v>
       </c>
       <c r="L26">
-        <v>1136.672276280948</v>
+        <v>1138.502652541416</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1578,31 +1578,31 @@
         <v>61</v>
       </c>
       <c r="D27">
-        <v>1411.602742011618</v>
+        <v>1402.830166589318</v>
       </c>
       <c r="E27">
-        <v>1192.246962616761</v>
+        <v>1012.425935375055</v>
       </c>
       <c r="F27">
-        <v>1023.690055921079</v>
+        <v>981.7648986214939</v>
       </c>
       <c r="G27">
-        <v>962.3280225712018</v>
+        <v>825.290461874516</v>
       </c>
       <c r="H27">
-        <v>880.9035160806659</v>
+        <v>768.8701196399735</v>
       </c>
       <c r="I27">
-        <v>632.5020539186536</v>
+        <v>617.0438152341389</v>
       </c>
       <c r="J27">
-        <v>1477.482970953871</v>
+        <v>1500.614443140603</v>
       </c>
       <c r="K27">
-        <v>1609.286663801675</v>
+        <v>1745.784638595023</v>
       </c>
       <c r="L27">
-        <v>1869.174554644141</v>
+        <v>1835.968179458369</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1616,7 +1616,7 @@
         <v>62</v>
       </c>
       <c r="D28">
-        <v>128.231</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1628,16 +1628,16 @@
         <v>15.01487137773027</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>128.231</v>
       </c>
       <c r="I28">
-        <v>115.366079688188</v>
+        <v>115.3660796881886</v>
       </c>
       <c r="J28">
-        <v>180.9897130053334</v>
+        <v>129.2934180234393</v>
       </c>
       <c r="K28">
-        <v>102.8001961231531</v>
+        <v>128.8549289490703</v>
       </c>
       <c r="L28">
         <v>104.5310905865141</v>
@@ -1657,22 +1657,22 @@
         <v>52.75871300533335</v>
       </c>
       <c r="E29">
-        <v>128.231</v>
+        <v>40.10079908079102</v>
       </c>
       <c r="F29">
-        <v>128.231</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>128.231</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>129.4505460906203</v>
+        <v>1.21954609062024</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>46.12128002825953</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1692,16 +1692,16 @@
         <v>64</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>128.231</v>
       </c>
       <c r="E30">
-        <v>40.10079908079243</v>
+        <v>128.231</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>128.231</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>128.231</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>296.185326615842</v>
+        <v>83.90536315268145</v>
       </c>
       <c r="F31">
-        <v>219.8616864993834</v>
+        <v>148.334225324792</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>207.3460077286898</v>
       </c>
       <c r="H31">
-        <v>141.8823266158421</v>
+        <v>147.069279506293</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>42</v>
       </c>
       <c r="D32">
-        <v>154.3029999999999</v>
+        <v>82.90536315268145</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>147.334225324792</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>29.35589552991428</v>
       </c>
       <c r="G32">
-        <v>295.1853266158421</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>29.83251048406214</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>84.96673105631002</v>
+        <v>84.96673105631</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>49</v>
       </c>
       <c r="D33">
-        <v>1543.917504184275</v>
+        <v>1828.334197349502</v>
       </c>
       <c r="E33">
-        <v>1543.917504184275</v>
+        <v>2128.069459436967</v>
       </c>
       <c r="F33">
-        <v>1126.093874089656</v>
+        <v>1310.596243725831</v>
       </c>
       <c r="G33">
-        <v>56.93898251129993</v>
+        <v>57.0086584442496</v>
       </c>
       <c r="H33">
-        <v>33.08790880994832</v>
+        <v>28.33893093476117</v>
       </c>
       <c r="I33">
-        <v>12.18646341843491</v>
+        <v>12.1864634184349</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-1.108756737266958E-08</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1844,31 +1844,31 @@
         <v>52</v>
       </c>
       <c r="D34">
-        <v>232.9978786854145</v>
+        <v>168.2857328926988</v>
       </c>
       <c r="E34">
-        <v>433.2230057783739</v>
+        <v>359.6972163789384</v>
       </c>
       <c r="F34">
-        <v>544.4063188438284</v>
+        <v>372.1108163972463</v>
       </c>
       <c r="G34">
-        <v>960.925126184803</v>
+        <v>1544.554661987473</v>
       </c>
       <c r="H34">
-        <v>1486.049742321964</v>
+        <v>2168.775345499133</v>
       </c>
       <c r="I34">
-        <v>1030.876409773433</v>
+        <v>1017.934293860725</v>
       </c>
       <c r="J34">
-        <v>699.4646390178463</v>
+        <v>669.0040233054032</v>
       </c>
       <c r="K34">
-        <v>291.1378333889496</v>
+        <v>251.3830518659515</v>
       </c>
       <c r="L34">
-        <v>207.1152038172915</v>
+        <v>150.3242076582341</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>289.4483378424088</v>
       </c>
       <c r="H35">
-        <v>120.017619754976</v>
+        <v>931.3639355457301</v>
       </c>
       <c r="I35">
-        <v>2585.30143742292</v>
+        <v>2606.151709913303</v>
       </c>
       <c r="J35">
-        <v>2632.176905545855</v>
+        <v>2639.515032420737</v>
       </c>
       <c r="K35">
-        <v>2668.622759560041</v>
+        <v>2675.960886434907</v>
       </c>
       <c r="L35">
-        <v>2698.947828510337</v>
+        <v>2702.616891947777</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1920,31 +1920,31 @@
         <v>37</v>
       </c>
       <c r="D36">
-        <v>405.1215360308059</v>
+        <v>397.082771650609</v>
       </c>
       <c r="E36">
-        <v>445.8366351146777</v>
+        <v>389.8368614416169</v>
       </c>
       <c r="F36">
-        <v>551.4612009253559</v>
+        <v>627.789461217802</v>
       </c>
       <c r="G36">
-        <v>518.1780799901919</v>
+        <v>561.5773445467991</v>
       </c>
       <c r="H36">
-        <v>163.223812517635</v>
+        <v>132.3743478864101</v>
       </c>
       <c r="I36">
-        <v>83.32504816039568</v>
+        <v>83.31822032215756</v>
       </c>
       <c r="J36">
-        <v>366.3115170555636</v>
+        <v>366.4539510927561</v>
       </c>
       <c r="K36">
-        <v>355.8865105491306</v>
+        <v>40.39901241431041</v>
       </c>
       <c r="L36">
-        <v>134.7393844506457</v>
+        <v>1.008064516129032</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1958,19 +1958,19 @@
         <v>38</v>
       </c>
       <c r="D37">
-        <v>21.32218610688453</v>
+        <v>20.8990932447689</v>
       </c>
       <c r="E37">
-        <v>63.6909478735254</v>
+        <v>55.69098020594525</v>
       </c>
       <c r="F37">
-        <v>139.6104306140141</v>
+        <v>158.9340408146334</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>24.98427481926982</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>18.75218452091146</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1979,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>15.64480818690643</v>
+        <v>428.7242133763552</v>
       </c>
       <c r="L37">
-        <v>303.2838227342453</v>
+        <v>480.1108283391104</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>6.980521530700706</v>
+        <v>7.946702040731672</v>
       </c>
       <c r="G38">
-        <v>9.677349541412756</v>
+        <v>10.9544614822186</v>
       </c>
       <c r="H38">
-        <v>4.471885274455754</v>
+        <v>4.140452942666343</v>
       </c>
       <c r="I38">
-        <v>3.022152005817461</v>
+        <v>3.021904364016077</v>
       </c>
       <c r="J38">
-        <v>16.59250774119227</v>
+        <v>16.59895945716316</v>
       </c>
       <c r="K38">
-        <v>20.24160084502136</v>
+        <v>25.55855887435963</v>
       </c>
       <c r="L38">
-        <v>27.9589281181845</v>
+        <v>30.70971656522804</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>10.12558939370376</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2072,22 +2072,22 @@
         <v>40</v>
       </c>
       <c r="D40">
-        <v>198.2396349181442</v>
+        <v>194.2899448341647</v>
       </c>
       <c r="E40">
-        <v>183.3556986786033</v>
+        <v>160.5699688987703</v>
       </c>
       <c r="F40">
-        <v>158.1935340192578</v>
+        <v>154.0088824036961</v>
       </c>
       <c r="G40">
-        <v>1449.442057888681</v>
+        <v>194.2899448341647</v>
       </c>
       <c r="H40">
-        <v>1410.2434963856</v>
+        <v>141.2222806538296</v>
       </c>
       <c r="I40">
-        <v>23.01887534593261</v>
+        <v>23.0188753459326</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2110,28 +2110,28 @@
         <v>54</v>
       </c>
       <c r="D41">
-        <v>1323.845887553874</v>
+        <v>1310.765925632062</v>
       </c>
       <c r="E41">
-        <v>1181.961146015993</v>
+        <v>1109.356826776168</v>
       </c>
       <c r="F41">
-        <v>1278.172902145504</v>
+        <v>1303.167102988087</v>
       </c>
       <c r="G41">
-        <v>629.9796735372279</v>
+        <v>1090.347915257035</v>
       </c>
       <c r="H41">
-        <v>355.1245385205661</v>
+        <v>305.8638951147083</v>
       </c>
       <c r="I41">
-        <v>131.6815074936328</v>
+        <v>131.6815074936439</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>5.751545010855764</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>47</v>
       </c>
       <c r="D42">
-        <v>246.6469876307143</v>
+        <v>241.7328383401816</v>
       </c>
       <c r="E42">
-        <v>228.1032203799364</v>
+        <v>199.7566874990645</v>
       </c>
       <c r="F42">
-        <v>196.7773228044427</v>
+        <v>191.5720244533781</v>
       </c>
       <c r="G42">
-        <v>132.7045640787555</v>
+        <v>132.8669539547481</v>
       </c>
       <c r="H42">
-        <v>77.58544134746506</v>
+        <v>66.44990701945466</v>
       </c>
       <c r="I42">
-        <v>28.77359418241575</v>
+        <v>28.77359418241574</v>
       </c>
       <c r="J42">
         <v>0</v>

--- a/TEMOA_Europe_Results/_5_Industry_fueltechs.xlsx
+++ b/TEMOA_Europe_Results/_5_Industry_fueltechs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>tech</t>
   </si>
@@ -92,9 +92,6 @@
     <t>IND_FT_ELC</t>
   </si>
   <si>
-    <t>IND_FT_ELC_DIS</t>
-  </si>
-  <si>
     <t>IND_FT_HET</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
   </si>
   <si>
     <t>ELC_CEN</t>
-  </si>
-  <si>
-    <t>IND_ELC</t>
   </si>
   <si>
     <t>HET</t>
@@ -576,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,34 +619,34 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>3445.996071898185</v>
+        <v>3365.308605981752</v>
       </c>
       <c r="E2">
-        <v>3440.590117961904</v>
+        <v>2902.920071635894</v>
       </c>
       <c r="F2">
-        <v>3074.847792316134</v>
+        <v>2960.356804018633</v>
       </c>
       <c r="G2">
-        <v>1572.18750281531</v>
+        <v>1565.863446229167</v>
       </c>
       <c r="H2">
-        <v>2978.431393750288</v>
+        <v>3193.37823152384</v>
       </c>
       <c r="I2">
-        <v>2395.791844310626</v>
+        <v>3318.286545184492</v>
       </c>
       <c r="J2">
-        <v>1822.133283925412</v>
+        <v>1770.405856015174</v>
       </c>
       <c r="K2">
-        <v>991.4736618981246</v>
+        <v>969.846278406735</v>
       </c>
       <c r="L2">
-        <v>618.8103820159266</v>
+        <v>427.4929827367139</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -663,22 +657,22 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>181.3682143104308</v>
+        <v>177.1215055779869</v>
       </c>
       <c r="E3">
-        <v>10.15925098871326</v>
+        <v>100.0776828664654</v>
       </c>
       <c r="F3">
-        <v>147.3939683815538</v>
+        <v>355.1526583746967</v>
       </c>
       <c r="G3">
-        <v>808.3226235554295</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>277.8207071407793</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -687,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>139.9132704560625</v>
+        <v>171.1491786423867</v>
       </c>
       <c r="L3">
-        <v>518.2183855588952</v>
+        <v>771.1372189676473</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -701,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -710,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>12.77807870661864</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>44.45774429554863</v>
+        <v>29.24362972584001</v>
       </c>
       <c r="H4">
-        <v>89.21238632578266</v>
+        <v>87.489814562297</v>
       </c>
       <c r="I4">
-        <v>86.89400471592936</v>
+        <v>120.3523617424423</v>
       </c>
       <c r="J4">
-        <v>82.53565397571556</v>
+        <v>80.1925997498161</v>
       </c>
       <c r="K4">
-        <v>61.63970984706452</v>
+        <v>62.16319713272922</v>
       </c>
       <c r="L4">
-        <v>72.5763043132865</v>
+        <v>76.50831074708692</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -739,34 +733,34 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>128.4159293658977</v>
+        <v>79.9278302101157</v>
       </c>
       <c r="E5">
-        <v>46.74220073301024</v>
+        <v>49.70008046946508</v>
       </c>
       <c r="F5">
-        <v>39.64756957750294</v>
+        <v>39.6475695775033</v>
       </c>
       <c r="G5">
-        <v>858.4831749185696</v>
+        <v>1973.609170004973</v>
       </c>
       <c r="H5">
-        <v>282.2964590728199</v>
+        <v>455.864827733117</v>
       </c>
       <c r="I5">
-        <v>822.6185448205496</v>
+        <v>9.657383416176252</v>
       </c>
       <c r="J5">
-        <v>1.976826965537904</v>
+        <v>1.976826965537873</v>
       </c>
       <c r="K5">
-        <v>2.015690120061825</v>
+        <v>2.015690120061826</v>
       </c>
       <c r="L5">
-        <v>2.049629227186553</v>
+        <v>2.049629227186551</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -777,22 +771,22 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>1138.89</v>
       </c>
       <c r="E6">
-        <v>932.3964115225265</v>
+        <v>1036.12976394391</v>
       </c>
       <c r="F6">
-        <v>824.4388791452938</v>
+        <v>809.2102941282807</v>
       </c>
       <c r="G6">
-        <v>679.565760760542</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>71.39763684731844</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -801,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>690.7867424239082</v>
       </c>
       <c r="L6">
-        <v>711.556587082038</v>
+        <v>710.3383385338284</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -815,10 +809,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>71.39763684731844</v>
+        <v>87.36900501593455</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -827,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>171.2398649252833</v>
+        <v>770.5812201725414</v>
       </c>
       <c r="H7">
-        <v>868.3898434678495</v>
+        <v>927.4352697734872</v>
       </c>
       <c r="I7">
-        <v>1001.949075647482</v>
+        <v>1006.747518226471</v>
       </c>
       <c r="J7">
-        <v>1005.302283046533</v>
+        <v>1005.485848956751</v>
       </c>
       <c r="K7">
-        <v>983.2467772242087</v>
+        <v>294.0847037773981</v>
       </c>
       <c r="L7">
-        <v>278.7960082502556</v>
+        <v>281.6635932682044</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -853,34 +847,34 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>305.7091508590141</v>
+        <v>304.2392181303489</v>
       </c>
       <c r="E8">
-        <v>345.8348381573011</v>
+        <v>350.3405438341639</v>
       </c>
       <c r="F8">
-        <v>366.2338112664893</v>
+        <v>348.1295475123275</v>
       </c>
       <c r="G8">
-        <v>397.2630689164557</v>
+        <v>396.842186954915</v>
       </c>
       <c r="H8">
-        <v>410.8659830687098</v>
+        <v>410.1978711464861</v>
       </c>
       <c r="I8">
-        <v>420.2602282002913</v>
+        <v>440.7420050410068</v>
       </c>
       <c r="J8">
-        <v>439.4675831538476</v>
+        <v>439.7391440799273</v>
       </c>
       <c r="K8">
-        <v>392.6359046720008</v>
+        <v>392.6359046719979</v>
       </c>
       <c r="L8">
-        <v>391.6685194757576</v>
+        <v>391.6685194757575</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -891,31 +885,31 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>41.05844661397853</v>
+        <v>41.05844661397799</v>
       </c>
       <c r="E9">
-        <v>33.02391778500955</v>
+        <v>33.02391778500937</v>
       </c>
       <c r="F9">
-        <v>24.98938895604033</v>
+        <v>24.98938895604112</v>
       </c>
       <c r="G9">
-        <v>16.95486012707633</v>
+        <v>16.97909309778393</v>
       </c>
       <c r="H9">
-        <v>8.932447783459921</v>
+        <v>8.932447783459905</v>
       </c>
       <c r="I9">
-        <v>102.9254707395301</v>
+        <v>103.5336942727712</v>
       </c>
       <c r="J9">
-        <v>103.2874842322735</v>
+        <v>103.3499465855046</v>
       </c>
       <c r="K9">
-        <v>92.55724829562763</v>
+        <v>92.55724829563341</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -929,34 +923,34 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>90.32611931557479</v>
+        <v>90.47715477284274</v>
       </c>
       <c r="E10">
-        <v>70.53096541497085</v>
+        <v>74.68502602932159</v>
       </c>
       <c r="F10">
-        <v>54.50080519847575</v>
+        <v>54.20434515806613</v>
       </c>
       <c r="G10">
-        <v>38.58685861301517</v>
+        <v>38.56194048730891</v>
       </c>
       <c r="H10">
-        <v>23.45410118689351</v>
+        <v>23.44887759310669</v>
       </c>
       <c r="I10">
-        <v>8.922429922425675</v>
+        <v>9.660444958801758</v>
       </c>
       <c r="J10">
-        <v>7.039898537897693</v>
+        <v>7.041778385434108</v>
       </c>
       <c r="K10">
-        <v>6.708962833457946</v>
+        <v>6.708962833457947</v>
       </c>
       <c r="L10">
-        <v>6.693646711890859</v>
+        <v>6.693646711890861</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -967,25 +961,25 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>1.157667081111701</v>
+        <v>1.006631623843708</v>
       </c>
       <c r="E11">
-        <v>2.938790225623786</v>
+        <v>0.3386504142167754</v>
       </c>
       <c r="F11">
-        <v>2.288021841438131</v>
+        <v>2.27233940332768</v>
       </c>
       <c r="G11">
-        <v>1.617376160712282</v>
+        <v>1.634759595674868</v>
       </c>
       <c r="H11">
-        <v>1.001659026833846</v>
+        <v>1.00095944346953</v>
       </c>
       <c r="I11">
-        <v>0.3786856181176825</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1005,10 +999,10 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>419.4612871696519</v>
+        <v>693.5957902448766</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1043,34 +1037,34 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13">
-        <v>36.47489453649147</v>
+        <v>60.31267741259798</v>
       </c>
       <c r="E13">
-        <v>267.77839246019</v>
+        <v>1242.117502680507</v>
       </c>
       <c r="F13">
-        <v>1088.661501715415</v>
+        <v>1104.089445835916</v>
       </c>
       <c r="G13">
-        <v>869.2815782822527</v>
+        <v>175.3280128605583</v>
       </c>
       <c r="H13">
-        <v>218.9450244384754</v>
+        <v>209.5825092974921</v>
       </c>
       <c r="I13">
-        <v>150.7356559359649</v>
+        <v>149.9774048194384</v>
       </c>
       <c r="J13">
-        <v>134.2537363169935</v>
+        <v>134.2540411444752</v>
       </c>
       <c r="K13">
-        <v>135.8893306160453</v>
+        <v>136.1732044399328</v>
       </c>
       <c r="L13">
-        <v>137.2542760650024</v>
+        <v>137.5424599702415</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1081,34 +1075,34 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14">
-        <v>643.1551186907114</v>
+        <v>642.9981762146742</v>
       </c>
       <c r="E14">
-        <v>554.884381587018</v>
+        <v>403.588459663645</v>
       </c>
       <c r="F14">
-        <v>447.4071137304986</v>
+        <v>456.0846795009114</v>
       </c>
       <c r="G14">
-        <v>313.0551083482084</v>
+        <v>298.1372578295108</v>
       </c>
       <c r="H14">
-        <v>347.2750455208721</v>
+        <v>346.1933313926061</v>
       </c>
       <c r="I14">
-        <v>297.5343512677802</v>
+        <v>293.6137400608587</v>
       </c>
       <c r="J14">
-        <v>251.983479545328</v>
+        <v>251.9840377486553</v>
       </c>
       <c r="K14">
-        <v>255.3149543392304</v>
+        <v>255.834787105184</v>
       </c>
       <c r="L14">
-        <v>258.11034738388</v>
+        <v>265.1620542060756</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1119,19 +1113,19 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>83.57382898240884</v>
+        <v>83.55343532733053</v>
       </c>
       <c r="E15">
-        <v>72.10362020622267</v>
+        <v>52.44369814838325</v>
       </c>
       <c r="F15">
-        <v>58.13764754690093</v>
+        <v>59.26524083910147</v>
       </c>
       <c r="G15">
-        <v>40.67947735598188</v>
+        <v>38.74099960496467</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1143,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>33.24406838089961</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>27.08435575624461</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1157,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1175,16 +1169,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>38.6626558144573</v>
+        <v>38.15319786101553</v>
       </c>
       <c r="J16">
-        <v>32.74361598611608</v>
+        <v>32.7436885210117</v>
       </c>
       <c r="K16">
-        <v>33.17651949040847</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>33.53976265440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1195,28 +1189,28 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>19.28418720384616</v>
       </c>
       <c r="E17">
-        <v>38.43785937049067</v>
+        <v>41.646970296516</v>
       </c>
       <c r="F17">
-        <v>40.33594428788032</v>
+        <v>37.51093470414845</v>
       </c>
       <c r="G17">
-        <v>293.2279665566911</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>92.17999999999998</v>
+        <v>112.2860532932663</v>
       </c>
       <c r="I17">
-        <v>92.17999999999998</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>70.58525516806905</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1233,34 +1227,34 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>41.53892462255217</v>
+        <v>24.54351098671329</v>
       </c>
       <c r="E18">
-        <v>48.92091192607905</v>
+        <v>53.00523492283856</v>
       </c>
       <c r="F18">
-        <v>51.33665636639316</v>
+        <v>47.74118962346167</v>
       </c>
       <c r="G18">
-        <v>373.1992301630615</v>
+        <v>481.9994692178808</v>
       </c>
       <c r="H18">
-        <v>448.338522204096</v>
+        <v>142.9095223732481</v>
       </c>
       <c r="I18">
-        <v>444.3968968955722</v>
+        <v>240.9425999999996</v>
       </c>
       <c r="J18">
-        <v>89.83577930481519</v>
+        <v>197.8387607372507</v>
       </c>
       <c r="K18">
-        <v>60.27935232741814</v>
+        <v>76.01970000857787</v>
       </c>
       <c r="L18">
-        <v>36.04636752362698</v>
+        <v>38.76939140789796</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1271,34 +1265,34 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19">
-        <v>345.8030743679377</v>
+        <v>237.2947092219056</v>
       </c>
       <c r="E19">
-        <v>307.7561732238328</v>
+        <v>84.37690671514579</v>
       </c>
       <c r="F19">
-        <v>115.6528970119132</v>
+        <v>112.1332799793821</v>
       </c>
       <c r="G19">
-        <v>169.4309684347078</v>
+        <v>15.5793499243988</v>
       </c>
       <c r="H19">
-        <v>10.82793415458269</v>
+        <v>2.681232780270932</v>
       </c>
       <c r="I19">
-        <v>0.4832547138855147</v>
+        <v>0.4832547138856569</v>
       </c>
       <c r="J19">
-        <v>0.4942067413845496</v>
+        <v>0.494206741384468</v>
       </c>
       <c r="K19">
-        <v>0.503922530015446</v>
+        <v>0.5039225300154566</v>
       </c>
       <c r="L19">
-        <v>0.5124073067966322</v>
+        <v>0.5124073067966377</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1309,22 +1303,22 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>183.8511714490251</v>
       </c>
       <c r="E20">
-        <v>147.3743527970803</v>
+        <v>147.3743527970802</v>
       </c>
       <c r="F20">
-        <v>110.8975341451351</v>
+        <v>110.8975341451518</v>
       </c>
       <c r="G20">
         <v>94.80323280999674</v>
       </c>
       <c r="H20">
-        <v>37.94389684124523</v>
+        <v>37.94389684124538</v>
       </c>
       <c r="I20">
         <v>1.467078189300412</v>
@@ -1347,10 +1341,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D21">
-        <v>160.3193272035556</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1359,16 +1353,16 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>36.82496620414661</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>51.28471427577865</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>19.00036449301704</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>15.83253742254138</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1388,31 +1382,31 @@
         <v>56</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>160.3193272035555</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>142.3210222621723</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>122.401568330499</v>
       </c>
       <c r="G22">
-        <v>50.39189240535818</v>
+        <v>760.9687511981296</v>
       </c>
       <c r="H22">
-        <v>63.82845570806246</v>
+        <v>929.0921315911932</v>
       </c>
       <c r="I22">
-        <v>36.26435803984954</v>
+        <v>1606.358465887191</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>922.5215802115765</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1525.070937122331</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1424.978635687531</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1420,37 +1414,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>57</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3.697997709333342</v>
       </c>
       <c r="E23">
-        <v>142.3208776082261</v>
+        <v>70.97349599044948</v>
       </c>
       <c r="F23">
-        <v>122.4013839495879</v>
+        <v>74.36762299046384</v>
       </c>
       <c r="G23">
-        <v>784.5391115583736</v>
+        <v>80.26829302172695</v>
       </c>
       <c r="H23">
-        <v>1073.000454434039</v>
+        <v>82.92726692579528</v>
       </c>
       <c r="I23">
-        <v>1590.833987631587</v>
+        <v>85.08242228297176</v>
       </c>
       <c r="J23">
-        <v>1136.739932323502</v>
+        <v>81.02112265797655</v>
       </c>
       <c r="K23">
-        <v>1590.151169348101</v>
+        <v>96.34487855989698</v>
       </c>
       <c r="L23">
-        <v>1422.663652594583</v>
+        <v>81.39716318122751</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1458,37 +1452,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
       </c>
       <c r="D24">
-        <v>3.697997709333333</v>
+        <v>4606.596666666667</v>
       </c>
       <c r="E24">
-        <v>70.06236026914732</v>
+        <v>4605.698888888888</v>
       </c>
       <c r="F24">
-        <v>74.4417826574449</v>
+        <v>4519.852222222222</v>
       </c>
       <c r="G24">
-        <v>80.25967979660957</v>
+        <v>4508.770045885861</v>
       </c>
       <c r="H24">
-        <v>82.9187893928966</v>
+        <v>4739.695562050759</v>
       </c>
       <c r="I24">
-        <v>85.07407790504006</v>
+        <v>4746.245049514154</v>
       </c>
       <c r="J24">
-        <v>82.77431748970773</v>
+        <v>6568.716112712618</v>
       </c>
       <c r="K24">
-        <v>96.21480830755867</v>
+        <v>7448.192127989076</v>
       </c>
       <c r="L24">
-        <v>82.83830347185753</v>
+        <v>7857.025339651897</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1496,37 +1490,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>59</v>
       </c>
       <c r="D25">
-        <v>4482.094054054054</v>
+        <v>1515.229855731399</v>
       </c>
       <c r="E25">
-        <v>4481.220540540541</v>
+        <v>1063.153130593576</v>
       </c>
       <c r="F25">
-        <v>4397.694054054054</v>
+        <v>1014.374168171575</v>
       </c>
       <c r="G25">
-        <v>4404.683368811924</v>
+        <v>841.1956715426861</v>
       </c>
       <c r="H25">
-        <v>4607.86542697703</v>
+        <v>766.5783800546429</v>
       </c>
       <c r="I25">
-        <v>4518.553305445087</v>
+        <v>623.5547261793864</v>
       </c>
       <c r="J25">
-        <v>6348.667197450452</v>
+        <v>1533.007792589282</v>
       </c>
       <c r="K25">
-        <v>7252.679779279598</v>
+        <v>1753.229393015355</v>
       </c>
       <c r="L25">
-        <v>7648.700460929009</v>
+        <v>1831.736440647162</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1534,37 +1528,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>60</v>
       </c>
       <c r="D26">
-        <v>1638.135159657192</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1517.414143703676</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>915.7132736256646</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>963.3408914798647</v>
+        <v>143.2458713777303</v>
       </c>
       <c r="H26">
-        <v>892.730634608572</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>850.3051612945184</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>826.0383902079138</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>1046.490362955893</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>1138.502652541416</v>
+        <v>104.5310905865139</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1578,31 +1572,31 @@
         <v>61</v>
       </c>
       <c r="D27">
-        <v>1402.830166589318</v>
+        <v>180.9897130053333</v>
       </c>
       <c r="E27">
-        <v>1012.425935375055</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>981.7648986214939</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>825.290461874516</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>768.8701196399735</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>617.0438152341389</v>
+        <v>115.366079688188</v>
       </c>
       <c r="J27">
-        <v>1500.614443140603</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>1745.784638595023</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>1835.968179458369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1610,7 +1604,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
@@ -1619,28 +1613,28 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>168.331799080791</v>
       </c>
       <c r="F28">
-        <v>24.72570117195235</v>
+        <v>152.9567011719523</v>
       </c>
       <c r="G28">
-        <v>15.01487137773027</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>128.231</v>
+        <v>129.4505460906202</v>
       </c>
       <c r="I28">
-        <v>115.3660796881886</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>129.2934180234393</v>
+        <v>348.225032938652</v>
       </c>
       <c r="K28">
-        <v>128.8549289490703</v>
+        <v>198.7927771206844</v>
       </c>
       <c r="L28">
-        <v>104.5310905865141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1651,28 +1645,28 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>52.75871300533335</v>
+        <v>67.93399498406534</v>
       </c>
       <c r="E29">
-        <v>40.10079908079102</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>192.9187058717193</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1.21954609062024</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>46.12128002825953</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1689,19 +1683,19 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>128.231</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>128.231</v>
+        <v>127.5062360560903</v>
       </c>
       <c r="F30">
-        <v>128.231</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>128.231</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1727,25 +1721,25 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>1363.35414729047</v>
       </c>
       <c r="E31">
-        <v>83.90536315268145</v>
+        <v>859.7849342185731</v>
       </c>
       <c r="F31">
-        <v>148.334225324792</v>
+        <v>1375.624215861272</v>
       </c>
       <c r="G31">
-        <v>207.3460077286898</v>
+        <v>39.00523784980889</v>
       </c>
       <c r="H31">
-        <v>147.069279506293</v>
+        <v>18.3593088413118</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>12.14640000251998</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1762,37 +1756,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D32">
-        <v>82.90536315268145</v>
+        <v>178.5805272217651</v>
       </c>
       <c r="E32">
-        <v>147.334225324792</v>
+        <v>380.1611869828002</v>
       </c>
       <c r="F32">
-        <v>29.35589552991428</v>
+        <v>347.1596941934562</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1013.628445512209</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1060.376747862498</v>
       </c>
       <c r="I32">
-        <v>84.96673105631</v>
+        <v>1099.275200019599</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>825.0472098866037</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>317.0250417803205</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>161.6800372732282</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1800,37 +1794,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D33">
-        <v>1828.334197349502</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>2128.069459436967</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1310.596243725831</v>
+        <v>10.07759087704828</v>
       </c>
       <c r="G33">
-        <v>57.0086584442496</v>
+        <v>1692.803951158416</v>
       </c>
       <c r="H33">
-        <v>28.33893093476117</v>
+        <v>2464.865057424221</v>
       </c>
       <c r="I33">
-        <v>12.1864634184349</v>
+        <v>2632.930489416943</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2674.88594012117</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>2711.30412321976</v>
       </c>
       <c r="L33">
-        <v>-1.108756737266958E-08</v>
+        <v>2720.322311609881</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1838,37 +1832,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>168.2857328926988</v>
+        <v>477.3035225781595</v>
       </c>
       <c r="E34">
-        <v>359.6972163789384</v>
+        <v>780.1208951931015</v>
       </c>
       <c r="F34">
-        <v>372.1108163972463</v>
+        <v>737.8582865072854</v>
       </c>
       <c r="G34">
-        <v>1544.554661987473</v>
+        <v>340.9557631453359</v>
       </c>
       <c r="H34">
-        <v>2168.775345499133</v>
+        <v>106.642742136463</v>
       </c>
       <c r="I34">
-        <v>1017.934293860725</v>
+        <v>82.94400200060831</v>
       </c>
       <c r="J34">
-        <v>669.0040233054032</v>
+        <v>366.4414956956712</v>
       </c>
       <c r="K34">
-        <v>251.3830518659515</v>
+        <v>40.39723917020729</v>
       </c>
       <c r="L34">
-        <v>150.3242076582341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1879,34 +1873,34 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>25.12123803042945</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>111.4458421704431</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>289.4483378424088</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>931.3639355457301</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>2606.151709913303</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>2639.515032420737</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>2675.960886434907</v>
+        <v>428.705395275669</v>
       </c>
       <c r="L35">
-        <v>2702.616891947777</v>
+        <v>481.4081079359634</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1914,37 +1908,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36">
-        <v>397.082771650609</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>389.8368614416169</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>627.789461217802</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>561.5773445467991</v>
+        <v>6.367594897451095</v>
       </c>
       <c r="H36">
-        <v>132.3743478864101</v>
+        <v>2.92171896264282</v>
       </c>
       <c r="I36">
-        <v>83.31822032215756</v>
+        <v>3.00833167877854</v>
       </c>
       <c r="J36">
-        <v>366.4539510927561</v>
+        <v>16.59839527541368</v>
       </c>
       <c r="K36">
-        <v>40.39901241431041</v>
+        <v>25.55743702604951</v>
       </c>
       <c r="L36">
-        <v>1.008064516129032</v>
+        <v>30.72817710229554</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1955,22 +1949,22 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D37">
-        <v>20.8990932447689</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>55.69098020594525</v>
+        <v>55.4314918743151</v>
       </c>
       <c r="F37">
-        <v>158.9340408146334</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>24.98427481926982</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>18.75218452091146</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1979,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>428.7242133763552</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>480.1108283391104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1990,37 +1984,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>226.8049881136031</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>202.1943308704479</v>
       </c>
       <c r="F38">
-        <v>7.946702040731672</v>
+        <v>158.1933388148101</v>
       </c>
       <c r="G38">
-        <v>10.9544614822186</v>
+        <v>72.97754178351342</v>
       </c>
       <c r="H38">
-        <v>4.140452942666343</v>
+        <v>34.50283902936187</v>
       </c>
       <c r="I38">
-        <v>3.021904364016077</v>
+        <v>22.94320000475997</v>
       </c>
       <c r="J38">
-        <v>16.59895945716316</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>25.55855887435963</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>30.70971656522804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2028,28 +2022,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>1419.274290778094</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1332.736093284854</v>
       </c>
       <c r="F39">
-        <v>10.12558939370376</v>
+        <v>1306.686720020618</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>416.1607231878805</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>197.0460302364931</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>131.2486000272299</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2066,28 +2060,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D40">
-        <v>194.2899448341647</v>
+        <v>282.1876014901806</v>
       </c>
       <c r="E40">
-        <v>160.5699688987703</v>
+        <v>251.5393759043073</v>
       </c>
       <c r="F40">
-        <v>154.0088824036961</v>
+        <v>196.7770799891539</v>
       </c>
       <c r="G40">
-        <v>194.2899448341647</v>
+        <v>90.90736885963527</v>
       </c>
       <c r="H40">
-        <v>141.2222806538296</v>
+        <v>43.04941383480008</v>
       </c>
       <c r="I40">
-        <v>23.0188753459326</v>
+        <v>28.67900000594996</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2096,82 +2090,6 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41">
-        <v>1310.765925632062</v>
-      </c>
-      <c r="E41">
-        <v>1109.356826776168</v>
-      </c>
-      <c r="F41">
-        <v>1303.167102988087</v>
-      </c>
-      <c r="G41">
-        <v>1090.347915257035</v>
-      </c>
-      <c r="H41">
-        <v>305.8638951147083</v>
-      </c>
-      <c r="I41">
-        <v>131.6815074936439</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42">
-        <v>241.7328383401816</v>
-      </c>
-      <c r="E42">
-        <v>199.7566874990645</v>
-      </c>
-      <c r="F42">
-        <v>191.5720244533781</v>
-      </c>
-      <c r="G42">
-        <v>132.8669539547481</v>
-      </c>
-      <c r="H42">
-        <v>66.44990701945466</v>
-      </c>
-      <c r="I42">
-        <v>28.77359418241574</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
         <v>0</v>
       </c>
     </row>
@@ -2193,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
